--- a/data_in/data_raw_manually_extracted/human_entered/S_152.xlsx
+++ b/data_in/data_raw_manually_extracted/human_entered/S_152.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23525"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pixie/Desktop/Data meeting/Data collection/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://unicef.sharepoint.com/teams/CHE-MarketData-DataIngest/Shared Documents/Data Ingest/CRB Atlas/data_raw_manually_extracted/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="13_ncr:1_{7B81C567-EC3B-B54D-A031-DDDE01C690C4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{1CACC306-CFFE-4D82-ACD2-A47CBD69ACE6}"/>
+  <xr:revisionPtr revIDLastSave="9" documentId="13_ncr:1_{7B81C567-EC3B-B54D-A031-DDDE01C690C4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{344AC49D-81A9-4210-B5EA-1737370C1CC0}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="19780" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="23880" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Blueprint" sheetId="1" r:id="rId1"/>
@@ -22,9 +22,10 @@
     <externalReference r:id="rId5"/>
   </externalReferences>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Blueprint!$A$1:$AJ$196</definedName>
     <definedName name="Options_2.3Sb">[1]CRCE!$DQ$212:$DQ$219</definedName>
   </definedNames>
-  <calcPr calcId="191028" calcCompleted="0"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -43,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3047" uniqueCount="574">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3047" uniqueCount="575">
   <si>
     <t>COUNTRY_ISO_3</t>
   </si>
@@ -1768,6 +1769,9 @@
   </si>
   <si>
     <t>Do national laws allow for civil suits?</t>
+  </si>
+  <si>
+    <t>No</t>
   </si>
 </sst>
 </file>
@@ -2381,39 +2385,40 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:AJ196"/>
   <sheetViews>
-    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="2" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="15.44140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.140625" customWidth="1"/>
-    <col min="5" max="5" width="17.42578125" customWidth="1"/>
-    <col min="7" max="7" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.109375" customWidth="1"/>
+    <col min="5" max="5" width="17.44140625" customWidth="1"/>
+    <col min="7" max="7" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.88671875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.33203125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="20" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="14" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="25.140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="25.7109375" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="20.140625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="19.140625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="29.85546875" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="24.85546875" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="22.85546875" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="25.85546875" customWidth="1"/>
-    <col min="24" max="24" width="24.7109375" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="27.140625" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="19.140625" customWidth="1"/>
-    <col min="27" max="27" width="8.85546875" customWidth="1"/>
+    <col min="13" max="13" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.44140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="25.6640625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="20.109375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="19.109375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="29.88671875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="24.88671875" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="22.88671875" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="25.88671875" customWidth="1"/>
+    <col min="24" max="24" width="24.6640625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="27.109375" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="19.109375" customWidth="1"/>
+    <col min="27" max="27" width="8.88671875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:36" s="1" customFormat="1">
@@ -2521,7 +2526,7 @@
       </c>
       <c r="AJ1" s="5"/>
     </row>
-    <row r="2" spans="1:36" ht="15.95">
+    <row r="2" spans="1:36" ht="15.6" hidden="1">
       <c r="A2" s="7" t="s">
         <v>34</v>
       </c>
@@ -2572,7 +2577,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="3" spans="1:36" ht="15.95">
+    <row r="3" spans="1:36" ht="15.6" hidden="1">
       <c r="A3" s="7" t="s">
         <v>39</v>
       </c>
@@ -2591,7 +2596,7 @@
       </c>
       <c r="Z3" s="3"/>
     </row>
-    <row r="4" spans="1:36" ht="15.95">
+    <row r="4" spans="1:36" ht="15.6">
       <c r="A4" s="7" t="s">
         <v>41</v>
       </c>
@@ -2602,14 +2607,14 @@
         <v>2019</v>
       </c>
       <c r="E4" s="22" t="s">
-        <v>43</v>
+        <v>574</v>
       </c>
       <c r="S4" s="6"/>
       <c r="T4" s="16" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="5" spans="1:36" ht="15.95">
+    <row r="5" spans="1:36" ht="15.6">
       <c r="A5" s="7" t="s">
         <v>44</v>
       </c>
@@ -2620,14 +2625,14 @@
         <v>2019</v>
       </c>
       <c r="E5" s="22" t="s">
-        <v>43</v>
+        <v>574</v>
       </c>
       <c r="S5" s="6"/>
       <c r="T5" s="16" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="6" spans="1:36" ht="15.95">
+    <row r="6" spans="1:36" ht="15.6" hidden="1">
       <c r="A6" s="7" t="s">
         <v>46</v>
       </c>
@@ -2645,7 +2650,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="7" spans="1:36" ht="15.95">
+    <row r="7" spans="1:36" ht="15.6" hidden="1">
       <c r="A7" s="7" t="s">
         <v>49</v>
       </c>
@@ -2663,7 +2668,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="8" spans="1:36" ht="15.95">
+    <row r="8" spans="1:36" ht="15.6" hidden="1">
       <c r="A8" s="7" t="s">
         <v>51</v>
       </c>
@@ -2681,7 +2686,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="9" spans="1:36" ht="15.95">
+    <row r="9" spans="1:36" ht="15.6" hidden="1">
       <c r="A9" s="7" t="s">
         <v>54</v>
       </c>
@@ -2699,7 +2704,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="10" spans="1:36" ht="15.95">
+    <row r="10" spans="1:36" ht="15.6" hidden="1">
       <c r="A10" s="7" t="s">
         <v>56</v>
       </c>
@@ -2717,7 +2722,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="11" spans="1:36" ht="15.95">
+    <row r="11" spans="1:36" ht="15.6">
       <c r="A11" s="7" t="s">
         <v>58</v>
       </c>
@@ -2728,14 +2733,14 @@
         <v>2019</v>
       </c>
       <c r="E11" s="22" t="s">
-        <v>43</v>
+        <v>574</v>
       </c>
       <c r="S11" s="6"/>
       <c r="T11" s="16" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="12" spans="1:36" ht="15.95">
+    <row r="12" spans="1:36" ht="15.6" hidden="1">
       <c r="A12" s="7" t="s">
         <v>60</v>
       </c>
@@ -2753,7 +2758,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="13" spans="1:36" ht="15.95">
+    <row r="13" spans="1:36" ht="15.6">
       <c r="A13" s="7" t="s">
         <v>62</v>
       </c>
@@ -2764,14 +2769,14 @@
         <v>2019</v>
       </c>
       <c r="E13" s="22" t="s">
-        <v>43</v>
+        <v>574</v>
       </c>
       <c r="S13" s="6"/>
       <c r="T13" s="16" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="14" spans="1:36" ht="15.95">
+    <row r="14" spans="1:36" ht="15.6">
       <c r="A14" s="7" t="s">
         <v>64</v>
       </c>
@@ -2782,14 +2787,14 @@
         <v>2019</v>
       </c>
       <c r="E14" s="22" t="s">
-        <v>43</v>
+        <v>574</v>
       </c>
       <c r="S14" s="6"/>
       <c r="T14" s="16" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="15" spans="1:36" ht="15.95">
+    <row r="15" spans="1:36" ht="15.6" hidden="1">
       <c r="A15" s="7" t="s">
         <v>66</v>
       </c>
@@ -2807,7 +2812,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="16" spans="1:36" ht="15.95">
+    <row r="16" spans="1:36" ht="15.6">
       <c r="A16" s="7" t="s">
         <v>68</v>
       </c>
@@ -2818,14 +2823,14 @@
         <v>2019</v>
       </c>
       <c r="E16" s="22" t="s">
-        <v>43</v>
+        <v>574</v>
       </c>
       <c r="S16" s="6"/>
       <c r="T16" s="16" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="17" spans="1:20" ht="15.95">
+    <row r="17" spans="1:20" ht="15.6" hidden="1">
       <c r="A17" s="7" t="s">
         <v>70</v>
       </c>
@@ -2843,7 +2848,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="18" spans="1:20" ht="15.95">
+    <row r="18" spans="1:20" ht="15.6">
       <c r="A18" s="7" t="s">
         <v>72</v>
       </c>
@@ -2854,14 +2859,14 @@
         <v>2019</v>
       </c>
       <c r="E18" s="22" t="s">
-        <v>43</v>
+        <v>574</v>
       </c>
       <c r="S18" s="6"/>
       <c r="T18" s="16" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="19" spans="1:20" ht="15.95">
+    <row r="19" spans="1:20" ht="15.6" hidden="1">
       <c r="A19" s="7" t="s">
         <v>74</v>
       </c>
@@ -2879,7 +2884,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="20" spans="1:20" ht="15.95">
+    <row r="20" spans="1:20" ht="15.6" hidden="1">
       <c r="A20" s="7" t="s">
         <v>76</v>
       </c>
@@ -2897,7 +2902,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="21" spans="1:20" ht="15.95">
+    <row r="21" spans="1:20" ht="15.6" hidden="1">
       <c r="A21" s="7" t="s">
         <v>78</v>
       </c>
@@ -2915,7 +2920,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="22" spans="1:20" ht="15.95">
+    <row r="22" spans="1:20" ht="15.6" hidden="1">
       <c r="A22" s="7" t="s">
         <v>80</v>
       </c>
@@ -2933,7 +2938,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="23" spans="1:20" ht="15.95">
+    <row r="23" spans="1:20" ht="15.6" hidden="1">
       <c r="A23" s="7" t="s">
         <v>82</v>
       </c>
@@ -2951,7 +2956,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="24" spans="1:20" ht="15.95">
+    <row r="24" spans="1:20" ht="15.6">
       <c r="A24" s="7" t="s">
         <v>84</v>
       </c>
@@ -2962,14 +2967,14 @@
         <v>2019</v>
       </c>
       <c r="E24" s="22" t="s">
-        <v>43</v>
+        <v>574</v>
       </c>
       <c r="S24" s="6"/>
       <c r="T24" s="16" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="25" spans="1:20" ht="15.95">
+    <row r="25" spans="1:20" ht="15.6" hidden="1">
       <c r="A25" s="7" t="s">
         <v>86</v>
       </c>
@@ -2987,7 +2992,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="26" spans="1:20" ht="15.95">
+    <row r="26" spans="1:20" ht="15.6">
       <c r="A26" s="7" t="s">
         <v>88</v>
       </c>
@@ -2998,14 +3003,14 @@
         <v>2019</v>
       </c>
       <c r="E26" s="22" t="s">
-        <v>43</v>
+        <v>574</v>
       </c>
       <c r="S26" s="6"/>
       <c r="T26" s="16" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="27" spans="1:20" ht="15.95">
+    <row r="27" spans="1:20" ht="15.6" hidden="1">
       <c r="A27" s="7" t="s">
         <v>90</v>
       </c>
@@ -3023,7 +3028,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="28" spans="1:20" ht="15.95">
+    <row r="28" spans="1:20" ht="15.6" hidden="1">
       <c r="A28" s="7" t="s">
         <v>92</v>
       </c>
@@ -3041,7 +3046,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="29" spans="1:20" ht="15.95">
+    <row r="29" spans="1:20" ht="15.6" hidden="1">
       <c r="A29" s="7" t="s">
         <v>94</v>
       </c>
@@ -3059,7 +3064,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="30" spans="1:20" ht="15.95">
+    <row r="30" spans="1:20" ht="15.6" hidden="1">
       <c r="A30" s="7" t="s">
         <v>96</v>
       </c>
@@ -3077,7 +3082,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="31" spans="1:20" ht="15.95">
+    <row r="31" spans="1:20" ht="15.6">
       <c r="A31" s="7" t="s">
         <v>98</v>
       </c>
@@ -3088,14 +3093,14 @@
         <v>2019</v>
       </c>
       <c r="E31" s="22" t="s">
-        <v>43</v>
+        <v>574</v>
       </c>
       <c r="S31" s="6"/>
       <c r="T31" s="16" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="32" spans="1:20" ht="15.95">
+    <row r="32" spans="1:20" ht="15.6" hidden="1">
       <c r="A32" s="7" t="s">
         <v>100</v>
       </c>
@@ -3113,7 +3118,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="33" spans="1:20" ht="15.95">
+    <row r="33" spans="1:20" ht="15.6">
       <c r="A33" s="7" t="s">
         <v>102</v>
       </c>
@@ -3124,14 +3129,14 @@
         <v>2019</v>
       </c>
       <c r="E33" s="22" t="s">
-        <v>43</v>
+        <v>574</v>
       </c>
       <c r="S33" s="6"/>
       <c r="T33" s="16" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="34" spans="1:20" ht="15.95">
+    <row r="34" spans="1:20" ht="15.6" hidden="1">
       <c r="A34" s="7" t="s">
         <v>104</v>
       </c>
@@ -3149,7 +3154,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="35" spans="1:20" ht="15.95">
+    <row r="35" spans="1:20" ht="15.6">
       <c r="A35" s="7" t="s">
         <v>106</v>
       </c>
@@ -3160,14 +3165,14 @@
         <v>2019</v>
       </c>
       <c r="E35" s="22" t="s">
-        <v>43</v>
+        <v>574</v>
       </c>
       <c r="S35" s="6"/>
       <c r="T35" s="16" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="36" spans="1:20" ht="15.95">
+    <row r="36" spans="1:20" ht="15.6" hidden="1">
       <c r="A36" s="7" t="s">
         <v>108</v>
       </c>
@@ -3185,7 +3190,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="37" spans="1:20" ht="15.95">
+    <row r="37" spans="1:20" ht="15.6" hidden="1">
       <c r="A37" s="7" t="s">
         <v>110</v>
       </c>
@@ -3203,7 +3208,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="38" spans="1:20" ht="15.95">
+    <row r="38" spans="1:20" ht="15.6" hidden="1">
       <c r="A38" s="7" t="s">
         <v>112</v>
       </c>
@@ -3221,7 +3226,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="39" spans="1:20" ht="15.95">
+    <row r="39" spans="1:20" ht="15.6">
       <c r="A39" s="7" t="s">
         <v>114</v>
       </c>
@@ -3232,14 +3237,14 @@
         <v>2019</v>
       </c>
       <c r="E39" s="22" t="s">
-        <v>43</v>
+        <v>574</v>
       </c>
       <c r="S39" s="6"/>
       <c r="T39" s="16" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="40" spans="1:20" ht="15.95">
+    <row r="40" spans="1:20" ht="15.6" hidden="1">
       <c r="A40" s="7" t="s">
         <v>116</v>
       </c>
@@ -3257,7 +3262,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="41" spans="1:20" ht="15.95">
+    <row r="41" spans="1:20" ht="15.6">
       <c r="A41" s="7" t="s">
         <v>118</v>
       </c>
@@ -3268,14 +3273,14 @@
         <v>2019</v>
       </c>
       <c r="E41" s="22" t="s">
-        <v>43</v>
+        <v>574</v>
       </c>
       <c r="S41" s="6"/>
       <c r="T41" s="16" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="42" spans="1:20" ht="15.95">
+    <row r="42" spans="1:20" ht="15.6" hidden="1">
       <c r="A42" s="7" t="s">
         <v>120</v>
       </c>
@@ -3293,7 +3298,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="43" spans="1:20" ht="15.95">
+    <row r="43" spans="1:20" ht="15.6" hidden="1">
       <c r="A43" s="7" t="s">
         <v>122</v>
       </c>
@@ -3311,7 +3316,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="44" spans="1:20" ht="15.95">
+    <row r="44" spans="1:20" ht="15.6" hidden="1">
       <c r="A44" s="7" t="s">
         <v>124</v>
       </c>
@@ -3329,7 +3334,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="45" spans="1:20" ht="15.95">
+    <row r="45" spans="1:20" ht="15.6">
       <c r="A45" s="7" t="s">
         <v>126</v>
       </c>
@@ -3340,14 +3345,14 @@
         <v>2019</v>
       </c>
       <c r="E45" s="22" t="s">
-        <v>43</v>
+        <v>574</v>
       </c>
       <c r="S45" s="6"/>
       <c r="T45" s="16" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="46" spans="1:20" ht="15.95">
+    <row r="46" spans="1:20" ht="15.6">
       <c r="A46" s="7" t="s">
         <v>128</v>
       </c>
@@ -3358,14 +3363,14 @@
         <v>2019</v>
       </c>
       <c r="E46" s="22" t="s">
-        <v>43</v>
+        <v>574</v>
       </c>
       <c r="S46" s="6"/>
       <c r="T46" s="16" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="47" spans="1:20" ht="15.95">
+    <row r="47" spans="1:20" ht="15.6" hidden="1">
       <c r="A47" s="7" t="s">
         <v>130</v>
       </c>
@@ -3383,7 +3388,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="48" spans="1:20" ht="15.95">
+    <row r="48" spans="1:20" ht="15.6" hidden="1">
       <c r="A48" s="7" t="s">
         <v>132</v>
       </c>
@@ -3401,7 +3406,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="49" spans="1:20" ht="15.95">
+    <row r="49" spans="1:20" ht="15.6" hidden="1">
       <c r="A49" s="7" t="s">
         <v>134</v>
       </c>
@@ -3419,7 +3424,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="50" spans="1:20" ht="15.95">
+    <row r="50" spans="1:20" ht="15.6">
       <c r="A50" s="7" t="s">
         <v>136</v>
       </c>
@@ -3430,14 +3435,14 @@
         <v>2019</v>
       </c>
       <c r="E50" s="22" t="s">
-        <v>43</v>
+        <v>574</v>
       </c>
       <c r="S50" s="6"/>
       <c r="T50" s="16" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="51" spans="1:20" ht="15.95">
+    <row r="51" spans="1:20" ht="15.6" hidden="1">
       <c r="A51" s="7" t="s">
         <v>138</v>
       </c>
@@ -3455,7 +3460,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="52" spans="1:20" ht="15.95">
+    <row r="52" spans="1:20" ht="15.6" hidden="1">
       <c r="A52" s="7" t="s">
         <v>140</v>
       </c>
@@ -3473,7 +3478,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="53" spans="1:20" ht="15.95">
+    <row r="53" spans="1:20" ht="15.6" hidden="1">
       <c r="A53" s="7" t="s">
         <v>142</v>
       </c>
@@ -3491,7 +3496,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="54" spans="1:20" ht="15.95">
+    <row r="54" spans="1:20" ht="15.6" hidden="1">
       <c r="A54" s="7" t="s">
         <v>144</v>
       </c>
@@ -3509,7 +3514,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="55" spans="1:20" ht="15.95">
+    <row r="55" spans="1:20" ht="15.6" hidden="1">
       <c r="A55" s="7" t="s">
         <v>146</v>
       </c>
@@ -3527,7 +3532,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="56" spans="1:20" ht="15.95">
+    <row r="56" spans="1:20" ht="15.6">
       <c r="A56" s="7" t="s">
         <v>148</v>
       </c>
@@ -3538,14 +3543,14 @@
         <v>2019</v>
       </c>
       <c r="E56" s="22" t="s">
-        <v>43</v>
+        <v>574</v>
       </c>
       <c r="S56" s="6"/>
       <c r="T56" s="16" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="57" spans="1:20" ht="15.95">
+    <row r="57" spans="1:20" ht="15.6">
       <c r="A57" s="7" t="s">
         <v>150</v>
       </c>
@@ -3556,14 +3561,14 @@
         <v>2019</v>
       </c>
       <c r="E57" s="22" t="s">
-        <v>43</v>
+        <v>574</v>
       </c>
       <c r="S57" s="6"/>
       <c r="T57" s="16" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="58" spans="1:20" ht="15.95">
+    <row r="58" spans="1:20" ht="15.6">
       <c r="A58" s="7" t="s">
         <v>152</v>
       </c>
@@ -3574,14 +3579,14 @@
         <v>2019</v>
       </c>
       <c r="E58" s="22" t="s">
-        <v>43</v>
+        <v>574</v>
       </c>
       <c r="S58" s="6"/>
       <c r="T58" s="16" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="59" spans="1:20" ht="15.95">
+    <row r="59" spans="1:20" ht="15.6" hidden="1">
       <c r="A59" s="7" t="s">
         <v>154</v>
       </c>
@@ -3599,7 +3604,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="60" spans="1:20" ht="15.95">
+    <row r="60" spans="1:20" ht="15.6" hidden="1">
       <c r="A60" s="7" t="s">
         <v>156</v>
       </c>
@@ -3617,7 +3622,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="61" spans="1:20" ht="15.95">
+    <row r="61" spans="1:20" ht="15.6" hidden="1">
       <c r="A61" s="7" t="s">
         <v>158</v>
       </c>
@@ -3635,7 +3640,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="62" spans="1:20" ht="15.95">
+    <row r="62" spans="1:20" ht="15.6" hidden="1">
       <c r="A62" s="7" t="s">
         <v>160</v>
       </c>
@@ -3653,7 +3658,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="63" spans="1:20" ht="15.95">
+    <row r="63" spans="1:20" ht="15.6" hidden="1">
       <c r="A63" s="7" t="s">
         <v>162</v>
       </c>
@@ -3671,7 +3676,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="64" spans="1:20" ht="15.95">
+    <row r="64" spans="1:20" ht="15.6">
       <c r="A64" s="7" t="s">
         <v>164</v>
       </c>
@@ -3682,14 +3687,14 @@
         <v>2019</v>
       </c>
       <c r="E64" s="22" t="s">
-        <v>43</v>
+        <v>574</v>
       </c>
       <c r="S64" s="6"/>
       <c r="T64" s="16" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="65" spans="1:20" ht="15.95">
+    <row r="65" spans="1:20" ht="15.6" hidden="1">
       <c r="A65" s="7" t="s">
         <v>166</v>
       </c>
@@ -3707,7 +3712,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="66" spans="1:20" ht="15.95">
+    <row r="66" spans="1:20" ht="15.6">
       <c r="A66" s="7" t="s">
         <v>168</v>
       </c>
@@ -3718,14 +3723,14 @@
         <v>2019</v>
       </c>
       <c r="E66" s="22" t="s">
-        <v>43</v>
+        <v>574</v>
       </c>
       <c r="S66" s="6"/>
       <c r="T66" s="16" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="67" spans="1:20" ht="15.95">
+    <row r="67" spans="1:20" ht="15.6" hidden="1">
       <c r="A67" s="7" t="s">
         <v>170</v>
       </c>
@@ -3743,7 +3748,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="68" spans="1:20" ht="15.95">
+    <row r="68" spans="1:20" ht="15.6" hidden="1">
       <c r="A68" s="7" t="s">
         <v>172</v>
       </c>
@@ -3761,7 +3766,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="69" spans="1:20" ht="15.95">
+    <row r="69" spans="1:20" ht="15.6">
       <c r="A69" s="7" t="s">
         <v>174</v>
       </c>
@@ -3772,14 +3777,14 @@
         <v>2019</v>
       </c>
       <c r="E69" s="22" t="s">
-        <v>43</v>
+        <v>574</v>
       </c>
       <c r="S69" s="6"/>
       <c r="T69" s="16" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="70" spans="1:20" ht="15.95">
+    <row r="70" spans="1:20" ht="15.6" hidden="1">
       <c r="A70" s="7" t="s">
         <v>176</v>
       </c>
@@ -3797,7 +3802,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="71" spans="1:20" ht="15.95">
+    <row r="71" spans="1:20" ht="15.6" hidden="1">
       <c r="A71" s="7" t="s">
         <v>178</v>
       </c>
@@ -3815,7 +3820,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="72" spans="1:20" ht="15.95">
+    <row r="72" spans="1:20" ht="15.6" hidden="1">
       <c r="A72" s="7" t="s">
         <v>180</v>
       </c>
@@ -3833,7 +3838,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="73" spans="1:20" ht="15.95">
+    <row r="73" spans="1:20" ht="15.6" hidden="1">
       <c r="A73" s="7" t="s">
         <v>182</v>
       </c>
@@ -3851,7 +3856,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="74" spans="1:20" ht="15.95">
+    <row r="74" spans="1:20" ht="15.6">
       <c r="A74" s="7" t="s">
         <v>184</v>
       </c>
@@ -3862,14 +3867,14 @@
         <v>2019</v>
       </c>
       <c r="E74" s="22" t="s">
-        <v>43</v>
+        <v>574</v>
       </c>
       <c r="S74" s="6"/>
       <c r="T74" s="16" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="75" spans="1:20" ht="15.95">
+    <row r="75" spans="1:20" ht="15.6" hidden="1">
       <c r="A75" s="7" t="s">
         <v>186</v>
       </c>
@@ -3887,7 +3892,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="76" spans="1:20" ht="15.95">
+    <row r="76" spans="1:20" ht="15.6" hidden="1">
       <c r="A76" s="7" t="s">
         <v>188</v>
       </c>
@@ -3905,7 +3910,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="77" spans="1:20" ht="15.95">
+    <row r="77" spans="1:20" ht="15.6">
       <c r="A77" s="7" t="s">
         <v>190</v>
       </c>
@@ -3916,14 +3921,14 @@
         <v>2019</v>
       </c>
       <c r="E77" s="22" t="s">
-        <v>43</v>
+        <v>574</v>
       </c>
       <c r="S77" s="6"/>
       <c r="T77" s="16" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="78" spans="1:20" ht="15.95">
+    <row r="78" spans="1:20" ht="15.6" hidden="1">
       <c r="A78" s="7" t="s">
         <v>192</v>
       </c>
@@ -3941,7 +3946,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="79" spans="1:20" ht="15.95">
+    <row r="79" spans="1:20" ht="15.6" hidden="1">
       <c r="A79" s="7" t="s">
         <v>194</v>
       </c>
@@ -3959,7 +3964,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="80" spans="1:20" ht="15.95">
+    <row r="80" spans="1:20" ht="15.6" hidden="1">
       <c r="A80" s="7" t="s">
         <v>196</v>
       </c>
@@ -3977,7 +3982,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="81" spans="1:20" ht="15.95">
+    <row r="81" spans="1:20" ht="15.6" hidden="1">
       <c r="A81" s="7" t="s">
         <v>198</v>
       </c>
@@ -3995,7 +4000,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="82" spans="1:20" ht="15.95">
+    <row r="82" spans="1:20" ht="15.6" hidden="1">
       <c r="A82" s="7" t="s">
         <v>200</v>
       </c>
@@ -4013,7 +4018,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="83" spans="1:20" ht="15.95">
+    <row r="83" spans="1:20" ht="15.6">
       <c r="A83" s="7" t="s">
         <v>202</v>
       </c>
@@ -4024,14 +4029,14 @@
         <v>2019</v>
       </c>
       <c r="E83" s="22" t="s">
-        <v>43</v>
+        <v>574</v>
       </c>
       <c r="S83" s="6"/>
       <c r="T83" s="16" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="84" spans="1:20" ht="15.95">
+    <row r="84" spans="1:20" ht="15.6" hidden="1">
       <c r="A84" s="7" t="s">
         <v>204</v>
       </c>
@@ -4049,7 +4054,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="85" spans="1:20" ht="15.95">
+    <row r="85" spans="1:20" ht="15.6">
       <c r="A85" s="7" t="s">
         <v>206</v>
       </c>
@@ -4060,14 +4065,14 @@
         <v>2019</v>
       </c>
       <c r="E85" s="22" t="s">
-        <v>43</v>
+        <v>574</v>
       </c>
       <c r="S85" s="6"/>
       <c r="T85" s="16" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="86" spans="1:20" ht="15.95">
+    <row r="86" spans="1:20" ht="15.6">
       <c r="A86" s="7" t="s">
         <v>208</v>
       </c>
@@ -4078,14 +4083,14 @@
         <v>2019</v>
       </c>
       <c r="E86" s="22" t="s">
-        <v>43</v>
+        <v>574</v>
       </c>
       <c r="S86" s="6"/>
       <c r="T86" s="16" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="87" spans="1:20" ht="15.95">
+    <row r="87" spans="1:20" ht="15.6">
       <c r="A87" s="7" t="s">
         <v>210</v>
       </c>
@@ -4096,14 +4101,14 @@
         <v>2019</v>
       </c>
       <c r="E87" s="22" t="s">
-        <v>43</v>
+        <v>574</v>
       </c>
       <c r="S87" s="6"/>
       <c r="T87" s="16" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="88" spans="1:20" ht="15.95">
+    <row r="88" spans="1:20" ht="15.6" hidden="1">
       <c r="A88" s="7" t="s">
         <v>212</v>
       </c>
@@ -4121,7 +4126,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="89" spans="1:20" ht="15.95">
+    <row r="89" spans="1:20" ht="15.6" hidden="1">
       <c r="A89" s="7" t="s">
         <v>214</v>
       </c>
@@ -4139,7 +4144,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="90" spans="1:20" ht="15.95">
+    <row r="90" spans="1:20" ht="15.6" hidden="1">
       <c r="A90" s="7" t="s">
         <v>216</v>
       </c>
@@ -4157,7 +4162,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="91" spans="1:20" ht="15.95">
+    <row r="91" spans="1:20" ht="15.6">
       <c r="A91" s="7" t="s">
         <v>218</v>
       </c>
@@ -4168,14 +4173,14 @@
         <v>2019</v>
       </c>
       <c r="E91" s="22" t="s">
-        <v>43</v>
+        <v>574</v>
       </c>
       <c r="S91" s="6"/>
       <c r="T91" s="16" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="92" spans="1:20" ht="15.95">
+    <row r="92" spans="1:20" ht="15.6" hidden="1">
       <c r="A92" s="7" t="s">
         <v>220</v>
       </c>
@@ -4193,7 +4198,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="93" spans="1:20" ht="15.95">
+    <row r="93" spans="1:20" ht="15.6">
       <c r="A93" s="7" t="s">
         <v>222</v>
       </c>
@@ -4204,14 +4209,14 @@
         <v>2019</v>
       </c>
       <c r="E93" s="22" t="s">
-        <v>43</v>
+        <v>574</v>
       </c>
       <c r="S93" s="6"/>
       <c r="T93" s="16" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="94" spans="1:20" ht="15.95">
+    <row r="94" spans="1:20" ht="15.6" hidden="1">
       <c r="A94" s="7" t="s">
         <v>224</v>
       </c>
@@ -4229,7 +4234,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="95" spans="1:20" ht="15.95">
+    <row r="95" spans="1:20" ht="15.6" hidden="1">
       <c r="A95" s="7" t="s">
         <v>226</v>
       </c>
@@ -4247,7 +4252,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="96" spans="1:20" ht="15.95">
+    <row r="96" spans="1:20" ht="15.6" hidden="1">
       <c r="A96" s="7" t="s">
         <v>228</v>
       </c>
@@ -4265,7 +4270,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="97" spans="1:20" ht="15.95">
+    <row r="97" spans="1:20" ht="15.6" hidden="1">
       <c r="A97" s="7" t="s">
         <v>230</v>
       </c>
@@ -4283,7 +4288,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="98" spans="1:20" ht="15.95">
+    <row r="98" spans="1:20" ht="15.6">
       <c r="A98" s="7" t="s">
         <v>232</v>
       </c>
@@ -4294,14 +4299,14 @@
         <v>2019</v>
       </c>
       <c r="E98" s="22" t="s">
-        <v>43</v>
+        <v>574</v>
       </c>
       <c r="S98" s="6"/>
       <c r="T98" s="16" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="99" spans="1:20" ht="15.95">
+    <row r="99" spans="1:20" ht="15.6" hidden="1">
       <c r="A99" s="7" t="s">
         <v>234</v>
       </c>
@@ -4319,7 +4324,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="100" spans="1:20" ht="15.95">
+    <row r="100" spans="1:20" ht="15.6" hidden="1">
       <c r="A100" s="7" t="s">
         <v>236</v>
       </c>
@@ -4337,7 +4342,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="101" spans="1:20" ht="15.95">
+    <row r="101" spans="1:20" ht="15.6">
       <c r="A101" s="7" t="s">
         <v>238</v>
       </c>
@@ -4348,14 +4353,14 @@
         <v>2019</v>
       </c>
       <c r="E101" s="22" t="s">
-        <v>43</v>
+        <v>574</v>
       </c>
       <c r="S101" s="6"/>
       <c r="T101" s="16" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="102" spans="1:20" ht="15.95">
+    <row r="102" spans="1:20" ht="15.6">
       <c r="A102" s="7" t="s">
         <v>240</v>
       </c>
@@ -4366,14 +4371,14 @@
         <v>2019</v>
       </c>
       <c r="E102" s="22" t="s">
-        <v>43</v>
+        <v>574</v>
       </c>
       <c r="S102" s="6"/>
       <c r="T102" s="16" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="103" spans="1:20" ht="15.95">
+    <row r="103" spans="1:20" ht="15.6" hidden="1">
       <c r="A103" s="7" t="s">
         <v>242</v>
       </c>
@@ -4391,7 +4396,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="104" spans="1:20" ht="15.95">
+    <row r="104" spans="1:20" ht="15.6">
       <c r="A104" s="7" t="s">
         <v>244</v>
       </c>
@@ -4402,14 +4407,14 @@
         <v>2019</v>
       </c>
       <c r="E104" s="22" t="s">
-        <v>43</v>
+        <v>574</v>
       </c>
       <c r="S104" s="6"/>
       <c r="T104" s="16" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="105" spans="1:20" ht="15.95">
+    <row r="105" spans="1:20" ht="15.6" hidden="1">
       <c r="A105" s="7" t="s">
         <v>246</v>
       </c>
@@ -4427,7 +4432,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="106" spans="1:20" ht="15.95">
+    <row r="106" spans="1:20" ht="15.6">
       <c r="A106" s="7" t="s">
         <v>248</v>
       </c>
@@ -4438,14 +4443,14 @@
         <v>2019</v>
       </c>
       <c r="E106" s="22" t="s">
-        <v>43</v>
+        <v>574</v>
       </c>
       <c r="S106" s="6"/>
       <c r="T106" s="16" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="107" spans="1:20" ht="15.95">
+    <row r="107" spans="1:20" ht="15.6" hidden="1">
       <c r="A107" s="7" t="s">
         <v>250</v>
       </c>
@@ -4463,7 +4468,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="108" spans="1:20" ht="15.95">
+    <row r="108" spans="1:20" ht="15.6">
       <c r="A108" s="7" t="s">
         <v>252</v>
       </c>
@@ -4474,14 +4479,14 @@
         <v>2019</v>
       </c>
       <c r="E108" s="22" t="s">
-        <v>43</v>
+        <v>574</v>
       </c>
       <c r="S108" s="6"/>
       <c r="T108" s="16" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="109" spans="1:20" ht="15.95">
+    <row r="109" spans="1:20" ht="15.6" hidden="1">
       <c r="A109" s="7" t="s">
         <v>254</v>
       </c>
@@ -4499,7 +4504,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="110" spans="1:20" ht="15.95">
+    <row r="110" spans="1:20" ht="15.6" hidden="1">
       <c r="A110" s="7" t="s">
         <v>256</v>
       </c>
@@ -4517,7 +4522,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="111" spans="1:20" ht="15.95">
+    <row r="111" spans="1:20" ht="15.6">
       <c r="A111" s="7" t="s">
         <v>258</v>
       </c>
@@ -4528,14 +4533,14 @@
         <v>2019</v>
       </c>
       <c r="E111" s="22" t="s">
-        <v>43</v>
+        <v>574</v>
       </c>
       <c r="S111" s="6"/>
       <c r="T111" s="16" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="112" spans="1:20" ht="15.95">
+    <row r="112" spans="1:20" ht="15.6" hidden="1">
       <c r="A112" s="7" t="s">
         <v>260</v>
       </c>
@@ -4553,7 +4558,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="113" spans="1:20" ht="15.95">
+    <row r="113" spans="1:20" ht="15.6">
       <c r="A113" s="7" t="s">
         <v>262</v>
       </c>
@@ -4564,14 +4569,14 @@
         <v>2019</v>
       </c>
       <c r="E113" s="22" t="s">
-        <v>43</v>
+        <v>574</v>
       </c>
       <c r="S113" s="6"/>
       <c r="T113" s="16" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="114" spans="1:20" ht="15.95">
+    <row r="114" spans="1:20" ht="15.6" hidden="1">
       <c r="A114" s="7" t="s">
         <v>264</v>
       </c>
@@ -4589,7 +4594,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="115" spans="1:20" ht="15.95">
+    <row r="115" spans="1:20" ht="15.6" hidden="1">
       <c r="A115" s="7" t="s">
         <v>266</v>
       </c>
@@ -4607,7 +4612,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="116" spans="1:20" ht="15.95">
+    <row r="116" spans="1:20" ht="15.6">
       <c r="A116" s="7" t="s">
         <v>268</v>
       </c>
@@ -4618,14 +4623,14 @@
         <v>2019</v>
       </c>
       <c r="E116" s="22" t="s">
-        <v>43</v>
+        <v>574</v>
       </c>
       <c r="S116" s="6"/>
       <c r="T116" s="16" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="117" spans="1:20" ht="15.95">
+    <row r="117" spans="1:20" ht="15.6" hidden="1">
       <c r="A117" s="7" t="s">
         <v>270</v>
       </c>
@@ -4643,7 +4648,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="118" spans="1:20" ht="15.95">
+    <row r="118" spans="1:20" ht="15.6" hidden="1">
       <c r="A118" s="7" t="s">
         <v>272</v>
       </c>
@@ -4661,7 +4666,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="119" spans="1:20" ht="15.95">
+    <row r="119" spans="1:20" ht="15.6" hidden="1">
       <c r="A119" s="7" t="s">
         <v>274</v>
       </c>
@@ -4679,7 +4684,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="120" spans="1:20" ht="15.95">
+    <row r="120" spans="1:20" ht="15.6" hidden="1">
       <c r="A120" s="7" t="s">
         <v>276</v>
       </c>
@@ -4697,7 +4702,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="121" spans="1:20" ht="15.95">
+    <row r="121" spans="1:20" ht="15.6" hidden="1">
       <c r="A121" s="7" t="s">
         <v>278</v>
       </c>
@@ -4715,7 +4720,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="122" spans="1:20" ht="15.95">
+    <row r="122" spans="1:20" ht="15.6" hidden="1">
       <c r="A122" s="7" t="s">
         <v>280</v>
       </c>
@@ -4733,7 +4738,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="123" spans="1:20" ht="15.95">
+    <row r="123" spans="1:20" ht="15.6">
       <c r="A123" s="7" t="s">
         <v>282</v>
       </c>
@@ -4744,14 +4749,14 @@
         <v>2019</v>
       </c>
       <c r="E123" s="22" t="s">
-        <v>43</v>
+        <v>574</v>
       </c>
       <c r="S123" s="6"/>
       <c r="T123" s="16" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="124" spans="1:20" ht="15.95">
+    <row r="124" spans="1:20" ht="15.6">
       <c r="A124" s="7" t="s">
         <v>284</v>
       </c>
@@ -4762,14 +4767,14 @@
         <v>2019</v>
       </c>
       <c r="E124" s="22" t="s">
-        <v>43</v>
+        <v>574</v>
       </c>
       <c r="S124" s="6"/>
       <c r="T124" s="16" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="125" spans="1:20" ht="15.95">
+    <row r="125" spans="1:20" ht="15.6">
       <c r="A125" s="7" t="s">
         <v>286</v>
       </c>
@@ -4780,14 +4785,14 @@
         <v>2019</v>
       </c>
       <c r="E125" s="22" t="s">
-        <v>43</v>
+        <v>574</v>
       </c>
       <c r="S125" s="6"/>
       <c r="T125" s="16" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="126" spans="1:20" ht="15.95">
+    <row r="126" spans="1:20" ht="15.6" hidden="1">
       <c r="A126" s="7" t="s">
         <v>288</v>
       </c>
@@ -4805,7 +4810,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="127" spans="1:20" ht="15.95">
+    <row r="127" spans="1:20" ht="15.6" hidden="1">
       <c r="A127" s="7" t="s">
         <v>290</v>
       </c>
@@ -4823,7 +4828,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="128" spans="1:20" ht="15.95">
+    <row r="128" spans="1:20" ht="15.6" hidden="1">
       <c r="A128" s="7" t="s">
         <v>292</v>
       </c>
@@ -4841,7 +4846,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="129" spans="1:20" ht="15.95">
+    <row r="129" spans="1:20" ht="15.6" hidden="1">
       <c r="A129" s="7" t="s">
         <v>294</v>
       </c>
@@ -4859,7 +4864,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="130" spans="1:20" ht="15.95">
+    <row r="130" spans="1:20" ht="15.6" hidden="1">
       <c r="A130" s="7" t="s">
         <v>296</v>
       </c>
@@ -4877,7 +4882,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="131" spans="1:20" ht="15.95">
+    <row r="131" spans="1:20" ht="15.6">
       <c r="A131" s="7" t="s">
         <v>298</v>
       </c>
@@ -4888,14 +4893,14 @@
         <v>2019</v>
       </c>
       <c r="E131" s="22" t="s">
-        <v>43</v>
+        <v>574</v>
       </c>
       <c r="S131" s="6"/>
       <c r="T131" s="16" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="132" spans="1:20" ht="15.95">
+    <row r="132" spans="1:20" ht="15.6">
       <c r="A132" s="7" t="s">
         <v>300</v>
       </c>
@@ -4906,14 +4911,14 @@
         <v>2019</v>
       </c>
       <c r="E132" s="22" t="s">
-        <v>43</v>
+        <v>574</v>
       </c>
       <c r="S132" s="6"/>
       <c r="T132" s="16" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="133" spans="1:20" ht="15.95">
+    <row r="133" spans="1:20" ht="15.6">
       <c r="A133" s="7" t="s">
         <v>302</v>
       </c>
@@ -4924,14 +4929,14 @@
         <v>2019</v>
       </c>
       <c r="E133" s="22" t="s">
-        <v>43</v>
+        <v>574</v>
       </c>
       <c r="S133" s="6"/>
       <c r="T133" s="16" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="134" spans="1:20" ht="15.95">
+    <row r="134" spans="1:20" ht="15.6" hidden="1">
       <c r="A134" s="7" t="s">
         <v>304</v>
       </c>
@@ -4949,7 +4954,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="135" spans="1:20" ht="15.95">
+    <row r="135" spans="1:20" ht="15.6" hidden="1">
       <c r="A135" s="7" t="s">
         <v>306</v>
       </c>
@@ -4967,7 +4972,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="136" spans="1:20" ht="15.95">
+    <row r="136" spans="1:20" ht="15.6">
       <c r="A136" s="7" t="s">
         <v>308</v>
       </c>
@@ -4978,14 +4983,14 @@
         <v>2019</v>
       </c>
       <c r="E136" s="22" t="s">
-        <v>43</v>
+        <v>574</v>
       </c>
       <c r="S136" s="6"/>
       <c r="T136" s="16" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="137" spans="1:20" ht="15.95">
+    <row r="137" spans="1:20" ht="15.6" hidden="1">
       <c r="A137" s="7" t="s">
         <v>310</v>
       </c>
@@ -5003,7 +5008,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="138" spans="1:20" ht="15.95">
+    <row r="138" spans="1:20" ht="15.6">
       <c r="A138" s="7" t="s">
         <v>312</v>
       </c>
@@ -5014,14 +5019,14 @@
         <v>2019</v>
       </c>
       <c r="E138" s="22" t="s">
-        <v>43</v>
+        <v>574</v>
       </c>
       <c r="S138" s="6"/>
       <c r="T138" s="16" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="139" spans="1:20" ht="15.95">
+    <row r="139" spans="1:20" ht="15.6" hidden="1">
       <c r="A139" s="7" t="s">
         <v>314</v>
       </c>
@@ -5039,7 +5044,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="140" spans="1:20" ht="15.95">
+    <row r="140" spans="1:20" ht="15.6" hidden="1">
       <c r="A140" s="7" t="s">
         <v>316</v>
       </c>
@@ -5057,7 +5062,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="141" spans="1:20" ht="15.95">
+    <row r="141" spans="1:20" ht="15.6" hidden="1">
       <c r="A141" s="7" t="s">
         <v>318</v>
       </c>
@@ -5075,7 +5080,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="142" spans="1:20" ht="15.95">
+    <row r="142" spans="1:20" ht="15.6">
       <c r="A142" s="7" t="s">
         <v>320</v>
       </c>
@@ -5086,14 +5091,14 @@
         <v>2019</v>
       </c>
       <c r="E142" s="22" t="s">
-        <v>43</v>
+        <v>574</v>
       </c>
       <c r="S142" s="6"/>
       <c r="T142" s="16" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="143" spans="1:20" ht="15.95">
+    <row r="143" spans="1:20" ht="15.6" hidden="1">
       <c r="A143" s="7" t="s">
         <v>322</v>
       </c>
@@ -5111,7 +5116,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="144" spans="1:20" ht="15.95">
+    <row r="144" spans="1:20" ht="15.6">
       <c r="A144" s="7" t="s">
         <v>324</v>
       </c>
@@ -5122,14 +5127,14 @@
         <v>2019</v>
       </c>
       <c r="E144" s="22" t="s">
-        <v>43</v>
+        <v>574</v>
       </c>
       <c r="S144" s="6"/>
       <c r="T144" s="16" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="145" spans="1:20" ht="15.95">
+    <row r="145" spans="1:20" ht="15.6" hidden="1">
       <c r="A145" s="7" t="s">
         <v>326</v>
       </c>
@@ -5147,7 +5152,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="146" spans="1:20" ht="15.95">
+    <row r="146" spans="1:20" ht="15.6" hidden="1">
       <c r="A146" s="7" t="s">
         <v>328</v>
       </c>
@@ -5165,7 +5170,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="147" spans="1:20" ht="15.95">
+    <row r="147" spans="1:20" ht="15.6">
       <c r="A147" s="7" t="s">
         <v>330</v>
       </c>
@@ -5176,14 +5181,14 @@
         <v>2019</v>
       </c>
       <c r="E147" s="22" t="s">
-        <v>43</v>
+        <v>574</v>
       </c>
       <c r="S147" s="6"/>
       <c r="T147" s="16" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="148" spans="1:20" ht="15.95">
+    <row r="148" spans="1:20" ht="15.6" hidden="1">
       <c r="A148" s="7" t="s">
         <v>332</v>
       </c>
@@ -5201,7 +5206,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="149" spans="1:20" ht="15.95">
+    <row r="149" spans="1:20" ht="15.6">
       <c r="A149" s="7" t="s">
         <v>334</v>
       </c>
@@ -5212,14 +5217,14 @@
         <v>2019</v>
       </c>
       <c r="E149" s="22" t="s">
-        <v>43</v>
+        <v>574</v>
       </c>
       <c r="S149" s="6"/>
       <c r="T149" s="16" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="150" spans="1:20" ht="15.95">
+    <row r="150" spans="1:20" ht="15.6">
       <c r="A150" s="7" t="s">
         <v>336</v>
       </c>
@@ -5230,14 +5235,14 @@
         <v>2019</v>
       </c>
       <c r="E150" s="22" t="s">
-        <v>43</v>
+        <v>574</v>
       </c>
       <c r="S150" s="6"/>
       <c r="T150" s="16" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="151" spans="1:20" ht="15.95">
+    <row r="151" spans="1:20" ht="15.6" hidden="1">
       <c r="A151" s="7" t="s">
         <v>338</v>
       </c>
@@ -5255,7 +5260,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="152" spans="1:20" ht="15.95">
+    <row r="152" spans="1:20" ht="15.6">
       <c r="A152" s="7" t="s">
         <v>340</v>
       </c>
@@ -5266,14 +5271,14 @@
         <v>2019</v>
       </c>
       <c r="E152" s="22" t="s">
-        <v>43</v>
+        <v>574</v>
       </c>
       <c r="S152" s="6"/>
       <c r="T152" s="16" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="153" spans="1:20" ht="15.95">
+    <row r="153" spans="1:20" ht="15.6" hidden="1">
       <c r="A153" s="7" t="s">
         <v>342</v>
       </c>
@@ -5291,7 +5296,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="154" spans="1:20" ht="15.95">
+    <row r="154" spans="1:20" ht="15.6">
       <c r="A154" s="7" t="s">
         <v>344</v>
       </c>
@@ -5302,14 +5307,14 @@
         <v>2019</v>
       </c>
       <c r="E154" s="22" t="s">
-        <v>43</v>
+        <v>574</v>
       </c>
       <c r="S154" s="6"/>
       <c r="T154" s="16" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="155" spans="1:20" ht="15.95">
+    <row r="155" spans="1:20" ht="15.6" hidden="1">
       <c r="A155" s="7" t="s">
         <v>346</v>
       </c>
@@ -5327,7 +5332,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="156" spans="1:20" ht="15.95">
+    <row r="156" spans="1:20" ht="15.6" hidden="1">
       <c r="A156" s="7" t="s">
         <v>348</v>
       </c>
@@ -5345,7 +5350,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="157" spans="1:20" ht="15.95">
+    <row r="157" spans="1:20" ht="15.6" hidden="1">
       <c r="A157" s="7" t="s">
         <v>350</v>
       </c>
@@ -5363,7 +5368,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="158" spans="1:20" ht="15.95">
+    <row r="158" spans="1:20" ht="15.6">
       <c r="A158" s="7" t="s">
         <v>352</v>
       </c>
@@ -5374,14 +5379,14 @@
         <v>2019</v>
       </c>
       <c r="E158" s="22" t="s">
-        <v>43</v>
+        <v>574</v>
       </c>
       <c r="S158" s="6"/>
       <c r="T158" s="16" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="159" spans="1:20" ht="15.95">
+    <row r="159" spans="1:20" ht="15.6">
       <c r="A159" s="7" t="s">
         <v>354</v>
       </c>
@@ -5392,14 +5397,14 @@
         <v>2019</v>
       </c>
       <c r="E159" s="22" t="s">
-        <v>43</v>
+        <v>574</v>
       </c>
       <c r="S159" s="6"/>
       <c r="T159" s="16" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="160" spans="1:20" ht="15.95">
+    <row r="160" spans="1:20" ht="15.6" hidden="1">
       <c r="A160" s="7" t="s">
         <v>356</v>
       </c>
@@ -5417,7 +5422,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="161" spans="1:20" ht="15.95">
+    <row r="161" spans="1:20" ht="15.6" hidden="1">
       <c r="A161" s="7" t="s">
         <v>358</v>
       </c>
@@ -5435,7 +5440,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="162" spans="1:20" ht="15.95">
+    <row r="162" spans="1:20" ht="15.6" hidden="1">
       <c r="A162" s="7" t="s">
         <v>360</v>
       </c>
@@ -5453,7 +5458,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="163" spans="1:20" ht="15.95">
+    <row r="163" spans="1:20" ht="15.6" hidden="1">
       <c r="A163" s="7" t="s">
         <v>362</v>
       </c>
@@ -5471,7 +5476,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="164" spans="1:20" ht="15.95">
+    <row r="164" spans="1:20" ht="15.6" hidden="1">
       <c r="A164" s="7" t="s">
         <v>364</v>
       </c>
@@ -5489,7 +5494,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="165" spans="1:20" ht="15.95">
+    <row r="165" spans="1:20" ht="15.6" hidden="1">
       <c r="A165" s="7" t="s">
         <v>366</v>
       </c>
@@ -5507,7 +5512,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="166" spans="1:20" ht="15.95">
+    <row r="166" spans="1:20" ht="15.6" hidden="1">
       <c r="A166" s="7" t="s">
         <v>368</v>
       </c>
@@ -5525,7 +5530,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="167" spans="1:20" ht="15.95">
+    <row r="167" spans="1:20" ht="15.6">
       <c r="A167" s="7" t="s">
         <v>370</v>
       </c>
@@ -5536,14 +5541,14 @@
         <v>2019</v>
       </c>
       <c r="E167" s="22" t="s">
-        <v>43</v>
+        <v>574</v>
       </c>
       <c r="S167" s="6"/>
       <c r="T167" s="16" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="168" spans="1:20" ht="15.95">
+    <row r="168" spans="1:20" ht="15.6" hidden="1">
       <c r="A168" s="7" t="s">
         <v>372</v>
       </c>
@@ -5561,7 +5566,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="169" spans="1:20" ht="15.95">
+    <row r="169" spans="1:20" ht="15.6">
       <c r="A169" s="7" t="s">
         <v>374</v>
       </c>
@@ -5572,14 +5577,14 @@
         <v>2019</v>
       </c>
       <c r="E169" s="22" t="s">
-        <v>43</v>
+        <v>574</v>
       </c>
       <c r="S169" s="6"/>
       <c r="T169" s="16" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="170" spans="1:20" ht="15.95">
+    <row r="170" spans="1:20" ht="15.6">
       <c r="A170" s="7" t="s">
         <v>376</v>
       </c>
@@ -5590,14 +5595,14 @@
         <v>2019</v>
       </c>
       <c r="E170" s="22" t="s">
-        <v>43</v>
+        <v>574</v>
       </c>
       <c r="S170" s="6"/>
       <c r="T170" s="16" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="171" spans="1:20" ht="15.95">
+    <row r="171" spans="1:20" ht="15.6" hidden="1">
       <c r="A171" s="7" t="s">
         <v>378</v>
       </c>
@@ -5615,7 +5620,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="172" spans="1:20" ht="15.95">
+    <row r="172" spans="1:20" ht="15.6">
       <c r="A172" s="7" t="s">
         <v>380</v>
       </c>
@@ -5626,14 +5631,14 @@
         <v>2019</v>
       </c>
       <c r="E172" s="22" t="s">
-        <v>43</v>
+        <v>574</v>
       </c>
       <c r="S172" s="6"/>
       <c r="T172" s="16" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="173" spans="1:20" ht="15.95">
+    <row r="173" spans="1:20" ht="15.6" hidden="1">
       <c r="A173" s="7" t="s">
         <v>382</v>
       </c>
@@ -5651,7 +5656,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="174" spans="1:20" ht="15.95">
+    <row r="174" spans="1:20" ht="15.6" hidden="1">
       <c r="A174" s="7" t="s">
         <v>384</v>
       </c>
@@ -5669,7 +5674,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="175" spans="1:20" ht="15.95">
+    <row r="175" spans="1:20" ht="15.6" hidden="1">
       <c r="A175" s="7" t="s">
         <v>386</v>
       </c>
@@ -5687,7 +5692,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="176" spans="1:20" ht="15.95">
+    <row r="176" spans="1:20" ht="15.6" hidden="1">
       <c r="A176" s="7" t="s">
         <v>388</v>
       </c>
@@ -5705,7 +5710,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="177" spans="1:20" ht="15.95">
+    <row r="177" spans="1:20" ht="15.6" hidden="1">
       <c r="A177" s="7" t="s">
         <v>390</v>
       </c>
@@ -5723,7 +5728,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="178" spans="1:20" ht="15.95">
+    <row r="178" spans="1:20" ht="15.6">
       <c r="A178" s="7" t="s">
         <v>392</v>
       </c>
@@ -5734,14 +5739,14 @@
         <v>2019</v>
       </c>
       <c r="E178" s="22" t="s">
-        <v>43</v>
+        <v>574</v>
       </c>
       <c r="S178" s="6"/>
       <c r="T178" s="16" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="179" spans="1:20" ht="15.95">
+    <row r="179" spans="1:20" ht="15.6" hidden="1">
       <c r="A179" s="7" t="s">
         <v>394</v>
       </c>
@@ -5759,7 +5764,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="180" spans="1:20" ht="15.95">
+    <row r="180" spans="1:20" ht="15.6" hidden="1">
       <c r="A180" s="7" t="s">
         <v>396</v>
       </c>
@@ -5777,7 +5782,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="181" spans="1:20" ht="15.95">
+    <row r="181" spans="1:20" ht="15.6" hidden="1">
       <c r="A181" s="7" t="s">
         <v>398</v>
       </c>
@@ -5795,7 +5800,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="182" spans="1:20" ht="15.95">
+    <row r="182" spans="1:20" ht="15.6" hidden="1">
       <c r="A182" s="7" t="s">
         <v>400</v>
       </c>
@@ -5813,7 +5818,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="183" spans="1:20" ht="15.95">
+    <row r="183" spans="1:20" ht="15.6">
       <c r="A183" s="7" t="s">
         <v>402</v>
       </c>
@@ -5824,14 +5829,14 @@
         <v>2019</v>
       </c>
       <c r="E183" s="22" t="s">
-        <v>43</v>
+        <v>574</v>
       </c>
       <c r="S183" s="6"/>
       <c r="T183" s="16" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="184" spans="1:20" ht="15.95">
+    <row r="184" spans="1:20" ht="15.6" hidden="1">
       <c r="A184" s="7" t="s">
         <v>404</v>
       </c>
@@ -5849,7 +5854,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="185" spans="1:20" ht="15.95">
+    <row r="185" spans="1:20" ht="15.6" hidden="1">
       <c r="A185" s="7" t="s">
         <v>406</v>
       </c>
@@ -5867,7 +5872,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="186" spans="1:20" ht="15.95">
+    <row r="186" spans="1:20" ht="15.6">
       <c r="A186" s="7" t="s">
         <v>408</v>
       </c>
@@ -5878,14 +5883,14 @@
         <v>2019</v>
       </c>
       <c r="E186" s="22" t="s">
-        <v>43</v>
+        <v>574</v>
       </c>
       <c r="S186" s="6"/>
       <c r="T186" s="16" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="187" spans="1:20" ht="15.95">
+    <row r="187" spans="1:20" ht="15.6">
       <c r="A187" s="7" t="s">
         <v>410</v>
       </c>
@@ -5896,14 +5901,14 @@
         <v>2019</v>
       </c>
       <c r="E187" s="22" t="s">
-        <v>43</v>
+        <v>574</v>
       </c>
       <c r="S187" s="6"/>
       <c r="T187" s="16" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="188" spans="1:20" ht="15.95">
+    <row r="188" spans="1:20" ht="15.6">
       <c r="A188" s="7" t="s">
         <v>412</v>
       </c>
@@ -5914,14 +5919,14 @@
         <v>2019</v>
       </c>
       <c r="E188" s="22" t="s">
-        <v>43</v>
+        <v>574</v>
       </c>
       <c r="S188" s="6"/>
       <c r="T188" s="16" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="189" spans="1:20" ht="15.95">
+    <row r="189" spans="1:20" ht="15.6">
       <c r="A189" s="7" t="s">
         <v>414</v>
       </c>
@@ -5932,14 +5937,14 @@
         <v>2019</v>
       </c>
       <c r="E189" s="22" t="s">
-        <v>43</v>
+        <v>574</v>
       </c>
       <c r="S189" s="6"/>
       <c r="T189" s="16" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="190" spans="1:20" ht="15.95">
+    <row r="190" spans="1:20" ht="15.6">
       <c r="A190" s="7" t="s">
         <v>416</v>
       </c>
@@ -5950,14 +5955,14 @@
         <v>2019</v>
       </c>
       <c r="E190" s="22" t="s">
-        <v>43</v>
+        <v>574</v>
       </c>
       <c r="S190" s="6"/>
       <c r="T190" s="16" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="191" spans="1:20" ht="15.95">
+    <row r="191" spans="1:20" ht="15.6" hidden="1">
       <c r="A191" s="7" t="s">
         <v>418</v>
       </c>
@@ -5975,7 +5980,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="192" spans="1:20" ht="15.95">
+    <row r="192" spans="1:20" ht="15.6" hidden="1">
       <c r="A192" s="7" t="s">
         <v>420</v>
       </c>
@@ -5993,7 +5998,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="193" spans="1:20" ht="15.95">
+    <row r="193" spans="1:20" ht="15.6" hidden="1">
       <c r="A193" s="7" t="s">
         <v>422</v>
       </c>
@@ -6011,7 +6016,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="194" spans="1:20" ht="15.95">
+    <row r="194" spans="1:20" ht="15.6">
       <c r="A194" s="7" t="s">
         <v>424</v>
       </c>
@@ -6022,14 +6027,14 @@
         <v>2019</v>
       </c>
       <c r="E194" s="22" t="s">
-        <v>43</v>
+        <v>574</v>
       </c>
       <c r="S194" s="6"/>
       <c r="T194" s="16" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="195" spans="1:20" ht="15.95">
+    <row r="195" spans="1:20" ht="15.6">
       <c r="A195" s="7" t="s">
         <v>426</v>
       </c>
@@ -6040,14 +6045,14 @@
         <v>2019</v>
       </c>
       <c r="E195" s="22" t="s">
-        <v>43</v>
+        <v>574</v>
       </c>
       <c r="S195" s="6"/>
       <c r="T195" s="16" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="196" spans="1:20" ht="15.95">
+    <row r="196" spans="1:20" ht="15.6" hidden="1">
       <c r="A196" s="7" t="s">
         <v>428</v>
       </c>
@@ -6065,6 +6070,13 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:AJ196" xr:uid="{4D384A47-8A7B-41FE-B8A4-B45F9C35D893}">
+    <filterColumn colId="4">
+      <filters>
+        <filter val="No data"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -6078,21 +6090,21 @@
       <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.85546875" customWidth="1"/>
-    <col min="11" max="11" width="21.140625" customWidth="1"/>
-    <col min="18" max="18" width="20.140625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="89.140625" customWidth="1"/>
-    <col min="20" max="20" width="33.42578125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="27.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.88671875" customWidth="1"/>
+    <col min="11" max="11" width="21.109375" customWidth="1"/>
+    <col min="18" max="18" width="20.109375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="89.109375" customWidth="1"/>
+    <col min="20" max="20" width="33.44140625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="27.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:24">
@@ -13668,11 +13680,11 @@
       <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="40.140625" customWidth="1"/>
-    <col min="2" max="2" width="26.140625" customWidth="1"/>
-    <col min="3" max="3" width="35.85546875" customWidth="1"/>
+    <col min="1" max="1" width="40.109375" customWidth="1"/>
+    <col min="2" max="2" width="26.109375" customWidth="1"/>
+    <col min="3" max="3" width="35.88671875" customWidth="1"/>
     <col min="4" max="4" width="35" customWidth="1"/>
   </cols>
   <sheetData>
@@ -14167,18 +14179,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD6C7E77-FF0A-E84A-99FE-DC85AB833D10}">
   <dimension ref="A1:H229"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
+    <sheetView zoomScale="150" workbookViewId="0">
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4"/>
   <cols>
     <col min="2" max="2" width="40" style="14" customWidth="1"/>
-    <col min="3" max="3" width="21.42578125" style="12" customWidth="1"/>
-    <col min="4" max="4" width="22.140625" style="12" customWidth="1"/>
-    <col min="5" max="5" width="26.28515625" style="12" customWidth="1"/>
-    <col min="6" max="6" width="81.28515625" style="13" customWidth="1"/>
-    <col min="7" max="8" width="10.85546875" style="14"/>
+    <col min="3" max="3" width="21.44140625" style="12" customWidth="1"/>
+    <col min="4" max="4" width="22.109375" style="12" customWidth="1"/>
+    <col min="5" max="5" width="26.33203125" style="12" customWidth="1"/>
+    <col min="6" max="6" width="81.33203125" style="13" customWidth="1"/>
+    <col min="7" max="8" width="10.88671875" style="14"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -14199,7 +14211,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="31.5">
+    <row r="3" spans="1:7" ht="31.2">
       <c r="C3" s="25"/>
       <c r="D3" s="25"/>
       <c r="E3" s="25"/>
@@ -14232,7 +14244,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="15.95">
+    <row r="7" spans="1:7" ht="15.6">
       <c r="C7" s="14" t="s">
         <v>40</v>
       </c>
@@ -14246,7 +14258,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="15.95">
+    <row r="8" spans="1:7" ht="15.6">
       <c r="C8" s="18" t="s">
         <v>42</v>
       </c>
@@ -14260,7 +14272,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="15.95">
+    <row r="9" spans="1:7" ht="15.6">
       <c r="C9" s="18" t="s">
         <v>45</v>
       </c>
@@ -14274,7 +14286,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="15.95">
+    <row r="10" spans="1:7" ht="15.6">
       <c r="C10" s="18" t="s">
         <v>47</v>
       </c>
@@ -14288,7 +14300,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="15.95">
+    <row r="11" spans="1:7" ht="15.6">
       <c r="C11" s="18" t="s">
         <v>50</v>
       </c>
@@ -14302,7 +14314,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="15.95">
+    <row r="12" spans="1:7" ht="15.6">
       <c r="C12" s="18" t="s">
         <v>52</v>
       </c>
@@ -14316,7 +14328,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="15.95">
+    <row r="13" spans="1:7" ht="15.6">
       <c r="C13" s="18" t="s">
         <v>55</v>
       </c>
@@ -14330,7 +14342,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="15.95">
+    <row r="14" spans="1:7" ht="15.6">
       <c r="C14" s="18" t="s">
         <v>57</v>
       </c>
@@ -14344,7 +14356,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="15.95">
+    <row r="15" spans="1:7" ht="15.6">
       <c r="C15" s="18" t="s">
         <v>59</v>
       </c>
@@ -14358,7 +14370,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="15.95">
+    <row r="16" spans="1:7" ht="15.6">
       <c r="C16" s="18" t="s">
         <v>61</v>
       </c>
@@ -14372,7 +14384,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="17" spans="3:6" ht="15.95">
+    <row r="17" spans="3:6" ht="15.6">
       <c r="C17" s="18" t="s">
         <v>63</v>
       </c>
@@ -14386,7 +14398,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="18" spans="3:6" ht="15.95">
+    <row r="18" spans="3:6" ht="15.6">
       <c r="C18" s="18" t="s">
         <v>65</v>
       </c>
@@ -14400,7 +14412,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="19" spans="3:6" ht="15.95">
+    <row r="19" spans="3:6" ht="15.6">
       <c r="C19" s="18" t="s">
         <v>67</v>
       </c>
@@ -14414,7 +14426,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="20" spans="3:6" ht="15.95">
+    <row r="20" spans="3:6" ht="15.6">
       <c r="C20" s="18" t="s">
         <v>69</v>
       </c>
@@ -14428,7 +14440,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="21" spans="3:6" ht="15.95">
+    <row r="21" spans="3:6" ht="15.6">
       <c r="C21" s="18" t="s">
         <v>71</v>
       </c>
@@ -14442,7 +14454,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="22" spans="3:6" ht="15.95">
+    <row r="22" spans="3:6" ht="15.6">
       <c r="C22" s="18" t="s">
         <v>73</v>
       </c>
@@ -14456,7 +14468,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="23" spans="3:6" ht="15.95">
+    <row r="23" spans="3:6" ht="15.6">
       <c r="C23" s="18" t="s">
         <v>75</v>
       </c>
@@ -14470,7 +14482,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="24" spans="3:6" ht="15.95">
+    <row r="24" spans="3:6" ht="15.6">
       <c r="C24" s="18" t="s">
         <v>77</v>
       </c>
@@ -14484,7 +14496,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="25" spans="3:6" ht="15.95">
+    <row r="25" spans="3:6" ht="15.6">
       <c r="C25" s="18" t="s">
         <v>79</v>
       </c>
@@ -14498,7 +14510,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="26" spans="3:6" ht="15.95">
+    <row r="26" spans="3:6" ht="15.6">
       <c r="C26" s="18" t="s">
         <v>81</v>
       </c>
@@ -14512,7 +14524,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="27" spans="3:6" ht="15.95">
+    <row r="27" spans="3:6" ht="15.6">
       <c r="C27" s="18" t="s">
         <v>83</v>
       </c>
@@ -14526,7 +14538,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="28" spans="3:6" ht="15.95">
+    <row r="28" spans="3:6" ht="15.6">
       <c r="C28" s="18" t="s">
         <v>85</v>
       </c>
@@ -14540,7 +14552,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="29" spans="3:6" ht="15.95">
+    <row r="29" spans="3:6" ht="15.6">
       <c r="C29" s="18" t="s">
         <v>87</v>
       </c>
@@ -14554,7 +14566,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="30" spans="3:6" ht="15.95">
+    <row r="30" spans="3:6" ht="15.6">
       <c r="C30" s="18" t="s">
         <v>89</v>
       </c>
@@ -14568,7 +14580,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="31" spans="3:6" ht="15.95">
+    <row r="31" spans="3:6" ht="15.6">
       <c r="C31" s="18" t="s">
         <v>91</v>
       </c>
@@ -14582,7 +14594,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="32" spans="3:6" ht="15.95">
+    <row r="32" spans="3:6" ht="15.6">
       <c r="C32" s="18" t="s">
         <v>93</v>
       </c>
@@ -14596,7 +14608,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="33" spans="3:6" ht="15.95">
+    <row r="33" spans="3:6" ht="15.6">
       <c r="C33" s="18" t="s">
         <v>95</v>
       </c>
@@ -14610,7 +14622,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="34" spans="3:6" ht="15.95">
+    <row r="34" spans="3:6" ht="15.6">
       <c r="C34" s="18" t="s">
         <v>97</v>
       </c>
@@ -14624,7 +14636,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="35" spans="3:6" ht="15.95">
+    <row r="35" spans="3:6" ht="15.6">
       <c r="C35" s="18" t="s">
         <v>99</v>
       </c>
@@ -14638,7 +14650,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="36" spans="3:6" ht="15.95">
+    <row r="36" spans="3:6" ht="15.6">
       <c r="C36" s="18" t="s">
         <v>101</v>
       </c>
@@ -14652,7 +14664,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="37" spans="3:6" ht="15.95">
+    <row r="37" spans="3:6" ht="15.6">
       <c r="C37" s="18" t="s">
         <v>103</v>
       </c>
@@ -14666,7 +14678,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="38" spans="3:6" ht="15.95">
+    <row r="38" spans="3:6" ht="15.6">
       <c r="C38" s="18" t="s">
         <v>105</v>
       </c>
@@ -14680,7 +14692,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="39" spans="3:6" ht="15.95">
+    <row r="39" spans="3:6" ht="15.6">
       <c r="C39" s="18" t="s">
         <v>107</v>
       </c>
@@ -14694,7 +14706,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="40" spans="3:6" ht="15.95">
+    <row r="40" spans="3:6" ht="15.6">
       <c r="C40" s="18" t="s">
         <v>109</v>
       </c>
@@ -14708,7 +14720,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="41" spans="3:6" ht="15.95">
+    <row r="41" spans="3:6" ht="15.6">
       <c r="C41" s="18" t="s">
         <v>111</v>
       </c>
@@ -14722,7 +14734,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="42" spans="3:6" ht="15.95">
+    <row r="42" spans="3:6" ht="15.6">
       <c r="C42" s="18" t="s">
         <v>113</v>
       </c>
@@ -14736,7 +14748,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="43" spans="3:6" ht="15.95">
+    <row r="43" spans="3:6" ht="15.6">
       <c r="C43" s="18" t="s">
         <v>115</v>
       </c>
@@ -14750,7 +14762,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="44" spans="3:6" ht="15.95">
+    <row r="44" spans="3:6" ht="15.6">
       <c r="C44" s="18" t="s">
         <v>117</v>
       </c>
@@ -14764,7 +14776,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="45" spans="3:6" ht="15.95">
+    <row r="45" spans="3:6" ht="15.6">
       <c r="C45" s="18" t="s">
         <v>119</v>
       </c>
@@ -14778,7 +14790,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="46" spans="3:6" ht="15.95">
+    <row r="46" spans="3:6" ht="15.6">
       <c r="C46" s="18" t="s">
         <v>121</v>
       </c>
@@ -14792,7 +14804,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="47" spans="3:6" ht="15.95">
+    <row r="47" spans="3:6" ht="15.6">
       <c r="C47" s="18" t="s">
         <v>123</v>
       </c>
@@ -14806,7 +14818,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="48" spans="3:6" ht="15.95">
+    <row r="48" spans="3:6" ht="15.6">
       <c r="C48" s="18" t="s">
         <v>125</v>
       </c>
@@ -14820,7 +14832,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="49" spans="3:6" ht="15.95">
+    <row r="49" spans="3:6" ht="15.6">
       <c r="C49" s="18" t="s">
         <v>127</v>
       </c>
@@ -14834,7 +14846,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="50" spans="3:6" ht="15.95">
+    <row r="50" spans="3:6" ht="15.6">
       <c r="C50" s="18" t="s">
         <v>129</v>
       </c>
@@ -14848,7 +14860,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="51" spans="3:6" ht="15.95">
+    <row r="51" spans="3:6" ht="15.6">
       <c r="C51" s="18" t="s">
         <v>131</v>
       </c>
@@ -14862,7 +14874,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="52" spans="3:6" ht="15.95">
+    <row r="52" spans="3:6" ht="15.6">
       <c r="C52" s="18" t="s">
         <v>133</v>
       </c>
@@ -14876,7 +14888,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="53" spans="3:6" ht="15.95">
+    <row r="53" spans="3:6" ht="15.6">
       <c r="C53" s="18" t="s">
         <v>135</v>
       </c>
@@ -14890,7 +14902,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="54" spans="3:6" ht="15.95">
+    <row r="54" spans="3:6" ht="15.6">
       <c r="C54" s="18" t="s">
         <v>137</v>
       </c>
@@ -14904,7 +14916,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="55" spans="3:6" ht="15.95">
+    <row r="55" spans="3:6" ht="15.6">
       <c r="C55" s="18" t="s">
         <v>139</v>
       </c>
@@ -14918,7 +14930,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="56" spans="3:6" ht="15.95">
+    <row r="56" spans="3:6" ht="15.6">
       <c r="C56" s="18" t="s">
         <v>141</v>
       </c>
@@ -14932,7 +14944,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="57" spans="3:6" ht="15.95">
+    <row r="57" spans="3:6" ht="15.6">
       <c r="C57" s="18" t="s">
         <v>143</v>
       </c>
@@ -14946,7 +14958,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="58" spans="3:6" ht="15.95">
+    <row r="58" spans="3:6" ht="15.6">
       <c r="C58" s="18" t="s">
         <v>145</v>
       </c>
@@ -14960,7 +14972,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="59" spans="3:6" ht="15.95">
+    <row r="59" spans="3:6" ht="15.6">
       <c r="C59" s="18" t="s">
         <v>147</v>
       </c>
@@ -14974,7 +14986,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="60" spans="3:6" ht="15.95">
+    <row r="60" spans="3:6" ht="15.6">
       <c r="C60" s="18" t="s">
         <v>149</v>
       </c>
@@ -14988,7 +15000,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="61" spans="3:6" ht="15.95">
+    <row r="61" spans="3:6" ht="15.6">
       <c r="C61" s="18" t="s">
         <v>151</v>
       </c>
@@ -15002,7 +15014,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="62" spans="3:6" ht="15.95">
+    <row r="62" spans="3:6" ht="15.6">
       <c r="C62" s="18" t="s">
         <v>153</v>
       </c>
@@ -15016,7 +15028,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="63" spans="3:6" ht="15.95">
+    <row r="63" spans="3:6" ht="15.6">
       <c r="C63" s="18" t="s">
         <v>155</v>
       </c>
@@ -15030,7 +15042,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="64" spans="3:6" ht="15.95">
+    <row r="64" spans="3:6" ht="15.6">
       <c r="C64" s="18" t="s">
         <v>157</v>
       </c>
@@ -15044,7 +15056,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="65" spans="3:6" ht="15.95">
+    <row r="65" spans="3:6" ht="15.6">
       <c r="C65" s="18" t="s">
         <v>159</v>
       </c>
@@ -15058,7 +15070,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="66" spans="3:6" ht="15.95">
+    <row r="66" spans="3:6" ht="15.6">
       <c r="C66" s="18" t="s">
         <v>161</v>
       </c>
@@ -15072,7 +15084,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="67" spans="3:6" ht="15.95">
+    <row r="67" spans="3:6" ht="15.6">
       <c r="C67" s="18" t="s">
         <v>163</v>
       </c>
@@ -15086,7 +15098,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="68" spans="3:6" ht="15.95">
+    <row r="68" spans="3:6" ht="15.6">
       <c r="C68" s="18" t="s">
         <v>165</v>
       </c>
@@ -15100,7 +15112,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="69" spans="3:6" ht="15.95">
+    <row r="69" spans="3:6" ht="15.6">
       <c r="C69" s="18" t="s">
         <v>167</v>
       </c>
@@ -15114,7 +15126,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="70" spans="3:6" ht="15.95">
+    <row r="70" spans="3:6" ht="15.6">
       <c r="C70" s="18" t="s">
         <v>169</v>
       </c>
@@ -15128,7 +15140,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="71" spans="3:6" ht="15.95">
+    <row r="71" spans="3:6" ht="15.6">
       <c r="C71" s="18" t="s">
         <v>171</v>
       </c>
@@ -15142,7 +15154,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="72" spans="3:6" ht="15.95">
+    <row r="72" spans="3:6" ht="15.6">
       <c r="C72" s="18" t="s">
         <v>173</v>
       </c>
@@ -15156,7 +15168,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="73" spans="3:6" ht="15.95">
+    <row r="73" spans="3:6" ht="15.6">
       <c r="C73" s="18" t="s">
         <v>175</v>
       </c>
@@ -15170,7 +15182,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="74" spans="3:6" ht="15.95">
+    <row r="74" spans="3:6" ht="15.6">
       <c r="C74" s="18" t="s">
         <v>177</v>
       </c>
@@ -15184,7 +15196,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="75" spans="3:6" ht="15.95">
+    <row r="75" spans="3:6" ht="15.6">
       <c r="C75" s="18" t="s">
         <v>179</v>
       </c>
@@ -15198,7 +15210,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="76" spans="3:6" ht="15.95">
+    <row r="76" spans="3:6" ht="15.6">
       <c r="C76" s="18" t="s">
         <v>181</v>
       </c>
@@ -15212,7 +15224,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="77" spans="3:6" ht="15.95">
+    <row r="77" spans="3:6" ht="15.6">
       <c r="C77" s="18" t="s">
         <v>183</v>
       </c>
@@ -15226,7 +15238,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="78" spans="3:6" ht="15.95">
+    <row r="78" spans="3:6" ht="15.6">
       <c r="C78" s="18" t="s">
         <v>185</v>
       </c>
@@ -15240,7 +15252,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="79" spans="3:6" ht="15.95">
+    <row r="79" spans="3:6" ht="15.6">
       <c r="C79" s="18" t="s">
         <v>187</v>
       </c>
@@ -15254,7 +15266,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="80" spans="3:6" ht="15.95">
+    <row r="80" spans="3:6" ht="15.6">
       <c r="C80" s="18" t="s">
         <v>189</v>
       </c>
@@ -15268,7 +15280,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="81" spans="3:6" ht="15.95">
+    <row r="81" spans="3:6" ht="15.6">
       <c r="C81" s="18" t="s">
         <v>191</v>
       </c>
@@ -15282,7 +15294,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="82" spans="3:6" ht="15.95">
+    <row r="82" spans="3:6" ht="15.6">
       <c r="C82" s="18" t="s">
         <v>193</v>
       </c>
@@ -15296,7 +15308,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="83" spans="3:6" ht="15.95">
+    <row r="83" spans="3:6" ht="15.6">
       <c r="C83" s="18" t="s">
         <v>195</v>
       </c>
@@ -15310,7 +15322,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="84" spans="3:6" ht="15.95">
+    <row r="84" spans="3:6" ht="15.6">
       <c r="C84" s="18" t="s">
         <v>197</v>
       </c>
@@ -15324,7 +15336,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="85" spans="3:6" ht="15.95">
+    <row r="85" spans="3:6" ht="15.6">
       <c r="C85" s="18" t="s">
         <v>199</v>
       </c>
@@ -15338,7 +15350,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="86" spans="3:6" ht="15.95">
+    <row r="86" spans="3:6" ht="15.6">
       <c r="C86" s="18" t="s">
         <v>201</v>
       </c>
@@ -15352,7 +15364,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="87" spans="3:6" ht="15.95">
+    <row r="87" spans="3:6" ht="15.6">
       <c r="C87" s="18" t="s">
         <v>203</v>
       </c>
@@ -15366,7 +15378,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="88" spans="3:6" ht="15.95">
+    <row r="88" spans="3:6" ht="15.6">
       <c r="C88" s="18" t="s">
         <v>205</v>
       </c>
@@ -15380,7 +15392,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="89" spans="3:6" ht="15.95">
+    <row r="89" spans="3:6" ht="15.6">
       <c r="C89" s="18" t="s">
         <v>207</v>
       </c>
@@ -15394,7 +15406,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="90" spans="3:6" ht="15.95">
+    <row r="90" spans="3:6" ht="15.6">
       <c r="C90" s="18" t="s">
         <v>209</v>
       </c>
@@ -15408,7 +15420,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="91" spans="3:6" ht="15.95">
+    <row r="91" spans="3:6" ht="15.6">
       <c r="C91" s="18" t="s">
         <v>211</v>
       </c>
@@ -15422,7 +15434,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="92" spans="3:6" ht="15.95">
+    <row r="92" spans="3:6" ht="15.6">
       <c r="C92" s="18" t="s">
         <v>213</v>
       </c>
@@ -15436,7 +15448,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="93" spans="3:6" ht="15.95">
+    <row r="93" spans="3:6" ht="15.6">
       <c r="C93" s="18" t="s">
         <v>215</v>
       </c>
@@ -15450,7 +15462,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="94" spans="3:6" ht="15.95">
+    <row r="94" spans="3:6" ht="15.6">
       <c r="C94" s="18" t="s">
         <v>217</v>
       </c>
@@ -15464,7 +15476,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="95" spans="3:6" ht="15.95">
+    <row r="95" spans="3:6" ht="15.6">
       <c r="C95" s="18" t="s">
         <v>219</v>
       </c>
@@ -15478,7 +15490,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="96" spans="3:6" ht="15.95">
+    <row r="96" spans="3:6" ht="15.6">
       <c r="C96" s="18" t="s">
         <v>221</v>
       </c>
@@ -15492,7 +15504,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="97" spans="3:6" ht="15.95">
+    <row r="97" spans="3:6" ht="15.6">
       <c r="C97" s="18" t="s">
         <v>223</v>
       </c>
@@ -15506,7 +15518,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="98" spans="3:6" ht="15.95">
+    <row r="98" spans="3:6" ht="15.6">
       <c r="C98" s="18" t="s">
         <v>225</v>
       </c>
@@ -15520,7 +15532,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="99" spans="3:6" ht="15.95">
+    <row r="99" spans="3:6" ht="15.6">
       <c r="C99" s="18" t="s">
         <v>227</v>
       </c>
@@ -15534,7 +15546,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="100" spans="3:6" ht="15.95">
+    <row r="100" spans="3:6" ht="15.6">
       <c r="C100" s="18" t="s">
         <v>229</v>
       </c>
@@ -15548,7 +15560,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="101" spans="3:6" ht="15.95">
+    <row r="101" spans="3:6" ht="15.6">
       <c r="C101" s="18" t="s">
         <v>231</v>
       </c>
@@ -15562,7 +15574,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="102" spans="3:6" ht="15.95">
+    <row r="102" spans="3:6" ht="15.6">
       <c r="C102" s="18" t="s">
         <v>233</v>
       </c>
@@ -15576,7 +15588,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="103" spans="3:6" ht="15.95">
+    <row r="103" spans="3:6" ht="15.6">
       <c r="C103" s="18" t="s">
         <v>235</v>
       </c>
@@ -15590,7 +15602,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="104" spans="3:6" ht="15.95">
+    <row r="104" spans="3:6" ht="15.6">
       <c r="C104" s="18" t="s">
         <v>237</v>
       </c>
@@ -15604,7 +15616,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="105" spans="3:6" ht="15.95">
+    <row r="105" spans="3:6" ht="15.6">
       <c r="C105" s="18" t="s">
         <v>239</v>
       </c>
@@ -15618,7 +15630,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="106" spans="3:6" ht="15.95">
+    <row r="106" spans="3:6" ht="15.6">
       <c r="C106" s="18" t="s">
         <v>241</v>
       </c>
@@ -15632,7 +15644,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="107" spans="3:6" ht="15.95">
+    <row r="107" spans="3:6" ht="15.6">
       <c r="C107" s="18" t="s">
         <v>243</v>
       </c>
@@ -15646,7 +15658,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="108" spans="3:6" ht="15.95">
+    <row r="108" spans="3:6" ht="15.6">
       <c r="C108" s="18" t="s">
         <v>245</v>
       </c>
@@ -15660,7 +15672,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="109" spans="3:6" ht="15.95">
+    <row r="109" spans="3:6" ht="15.6">
       <c r="C109" s="18" t="s">
         <v>247</v>
       </c>
@@ -15674,7 +15686,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="110" spans="3:6" ht="15.95">
+    <row r="110" spans="3:6" ht="15.6">
       <c r="C110" s="18" t="s">
         <v>249</v>
       </c>
@@ -15688,7 +15700,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="111" spans="3:6" ht="15.95">
+    <row r="111" spans="3:6" ht="15.6">
       <c r="C111" s="18" t="s">
         <v>251</v>
       </c>
@@ -15702,7 +15714,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="112" spans="3:6" ht="15.95">
+    <row r="112" spans="3:6" ht="15.6">
       <c r="C112" s="18" t="s">
         <v>253</v>
       </c>
@@ -15716,7 +15728,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="113" spans="3:6" ht="15.95">
+    <row r="113" spans="3:6" ht="15.6">
       <c r="C113" s="18" t="s">
         <v>255</v>
       </c>
@@ -15730,7 +15742,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="114" spans="3:6" ht="15.95">
+    <row r="114" spans="3:6" ht="15.6">
       <c r="C114" s="18" t="s">
         <v>257</v>
       </c>
@@ -15744,7 +15756,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="115" spans="3:6" ht="15.95">
+    <row r="115" spans="3:6" ht="15.6">
       <c r="C115" s="18" t="s">
         <v>259</v>
       </c>
@@ -15758,7 +15770,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="116" spans="3:6" ht="15.95">
+    <row r="116" spans="3:6" ht="15.6">
       <c r="C116" s="18" t="s">
         <v>261</v>
       </c>
@@ -15772,7 +15784,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="117" spans="3:6" ht="15.95">
+    <row r="117" spans="3:6" ht="15.6">
       <c r="C117" s="18" t="s">
         <v>263</v>
       </c>
@@ -15786,7 +15798,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="118" spans="3:6" ht="15.95">
+    <row r="118" spans="3:6" ht="15.6">
       <c r="C118" s="18" t="s">
         <v>265</v>
       </c>
@@ -15800,7 +15812,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="119" spans="3:6" ht="15.95">
+    <row r="119" spans="3:6" ht="15.6">
       <c r="C119" s="18" t="s">
         <v>267</v>
       </c>
@@ -15814,7 +15826,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="120" spans="3:6" ht="15.95">
+    <row r="120" spans="3:6" ht="15.6">
       <c r="C120" s="18" t="s">
         <v>269</v>
       </c>
@@ -15828,7 +15840,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="121" spans="3:6" ht="15.95">
+    <row r="121" spans="3:6" ht="15.6">
       <c r="C121" s="18" t="s">
         <v>271</v>
       </c>
@@ -15842,7 +15854,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="122" spans="3:6" ht="15.95">
+    <row r="122" spans="3:6" ht="15.6">
       <c r="C122" s="18" t="s">
         <v>273</v>
       </c>
@@ -15856,7 +15868,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="123" spans="3:6" ht="15.95">
+    <row r="123" spans="3:6" ht="15.6">
       <c r="C123" s="18" t="s">
         <v>275</v>
       </c>
@@ -15870,7 +15882,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="124" spans="3:6" ht="15.95">
+    <row r="124" spans="3:6" ht="15.6">
       <c r="C124" s="18" t="s">
         <v>277</v>
       </c>
@@ -15884,7 +15896,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="125" spans="3:6" ht="15.95">
+    <row r="125" spans="3:6" ht="15.6">
       <c r="C125" s="18" t="s">
         <v>279</v>
       </c>
@@ -15898,7 +15910,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="126" spans="3:6" ht="15.95">
+    <row r="126" spans="3:6" ht="15.6">
       <c r="C126" s="18" t="s">
         <v>281</v>
       </c>
@@ -15912,7 +15924,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="127" spans="3:6" ht="15.95">
+    <row r="127" spans="3:6" ht="15.6">
       <c r="C127" s="18" t="s">
         <v>283</v>
       </c>
@@ -15926,7 +15938,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="128" spans="3:6" ht="15.95">
+    <row r="128" spans="3:6" ht="15.6">
       <c r="C128" s="18" t="s">
         <v>285</v>
       </c>
@@ -15940,7 +15952,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="129" spans="3:6" ht="15.95">
+    <row r="129" spans="3:6" ht="15.6">
       <c r="C129" s="18" t="s">
         <v>287</v>
       </c>
@@ -15954,7 +15966,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="130" spans="3:6" ht="15.95">
+    <row r="130" spans="3:6" ht="15.6">
       <c r="C130" s="18" t="s">
         <v>289</v>
       </c>
@@ -15968,7 +15980,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="131" spans="3:6" ht="15.95">
+    <row r="131" spans="3:6" ht="15.6">
       <c r="C131" s="18" t="s">
         <v>291</v>
       </c>
@@ -15982,7 +15994,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="132" spans="3:6" ht="15.95">
+    <row r="132" spans="3:6" ht="15.6">
       <c r="C132" s="18" t="s">
         <v>293</v>
       </c>
@@ -15996,7 +16008,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="133" spans="3:6" ht="15.95">
+    <row r="133" spans="3:6" ht="15.6">
       <c r="C133" s="18" t="s">
         <v>295</v>
       </c>
@@ -16010,7 +16022,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="134" spans="3:6" ht="15.95">
+    <row r="134" spans="3:6" ht="15.6">
       <c r="C134" s="18" t="s">
         <v>297</v>
       </c>
@@ -16024,7 +16036,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="135" spans="3:6" ht="15.95">
+    <row r="135" spans="3:6" ht="15.6">
       <c r="C135" s="18" t="s">
         <v>299</v>
       </c>
@@ -16038,7 +16050,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="136" spans="3:6" ht="15.95">
+    <row r="136" spans="3:6" ht="15.6">
       <c r="C136" s="18" t="s">
         <v>301</v>
       </c>
@@ -16052,7 +16064,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="137" spans="3:6" ht="15.95">
+    <row r="137" spans="3:6" ht="15.6">
       <c r="C137" s="18" t="s">
         <v>303</v>
       </c>
@@ -16066,7 +16078,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="138" spans="3:6" ht="15.95">
+    <row r="138" spans="3:6" ht="15.6">
       <c r="C138" s="18" t="s">
         <v>305</v>
       </c>
@@ -16080,7 +16092,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="139" spans="3:6" ht="15.95">
+    <row r="139" spans="3:6" ht="15.6">
       <c r="C139" s="18" t="s">
         <v>307</v>
       </c>
@@ -16094,7 +16106,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="140" spans="3:6" ht="15.95">
+    <row r="140" spans="3:6" ht="15.6">
       <c r="C140" s="18" t="s">
         <v>309</v>
       </c>
@@ -16108,7 +16120,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="141" spans="3:6" ht="15.95">
+    <row r="141" spans="3:6" ht="15.6">
       <c r="C141" s="18" t="s">
         <v>311</v>
       </c>
@@ -16122,7 +16134,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="142" spans="3:6" ht="15.95">
+    <row r="142" spans="3:6" ht="15.6">
       <c r="C142" s="18" t="s">
         <v>313</v>
       </c>
@@ -16136,7 +16148,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="143" spans="3:6" ht="15.95">
+    <row r="143" spans="3:6" ht="15.6">
       <c r="C143" s="18" t="s">
         <v>315</v>
       </c>
@@ -16150,7 +16162,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="144" spans="3:6" ht="15.95">
+    <row r="144" spans="3:6" ht="15.6">
       <c r="C144" s="18" t="s">
         <v>317</v>
       </c>
@@ -16164,7 +16176,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="145" spans="3:6" ht="15.95">
+    <row r="145" spans="3:6" ht="15.6">
       <c r="C145" s="18" t="s">
         <v>319</v>
       </c>
@@ -16178,7 +16190,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="146" spans="3:6" ht="15.95">
+    <row r="146" spans="3:6" ht="15.6">
       <c r="C146" s="18" t="s">
         <v>321</v>
       </c>
@@ -16192,7 +16204,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="147" spans="3:6" ht="15.95">
+    <row r="147" spans="3:6" ht="15.6">
       <c r="C147" s="18" t="s">
         <v>323</v>
       </c>
@@ -16206,7 +16218,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="148" spans="3:6" ht="15.95">
+    <row r="148" spans="3:6" ht="15.6">
       <c r="C148" s="18" t="s">
         <v>325</v>
       </c>
@@ -16220,7 +16232,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="149" spans="3:6" ht="15.95">
+    <row r="149" spans="3:6" ht="15.6">
       <c r="C149" s="18" t="s">
         <v>327</v>
       </c>
@@ -16234,7 +16246,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="150" spans="3:6" ht="15.95">
+    <row r="150" spans="3:6" ht="15.6">
       <c r="C150" s="18" t="s">
         <v>329</v>
       </c>
@@ -16248,7 +16260,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="151" spans="3:6" ht="15.95">
+    <row r="151" spans="3:6" ht="15.6">
       <c r="C151" s="18" t="s">
         <v>331</v>
       </c>
@@ -16262,7 +16274,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="152" spans="3:6" ht="15.95">
+    <row r="152" spans="3:6" ht="15.6">
       <c r="C152" s="18" t="s">
         <v>333</v>
       </c>
@@ -16276,7 +16288,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="153" spans="3:6" ht="15.95">
+    <row r="153" spans="3:6" ht="15.6">
       <c r="C153" s="18" t="s">
         <v>335</v>
       </c>
@@ -16290,7 +16302,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="154" spans="3:6" ht="15.95">
+    <row r="154" spans="3:6" ht="15.6">
       <c r="C154" s="18" t="s">
         <v>337</v>
       </c>
@@ -16304,7 +16316,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="155" spans="3:6" ht="15.95">
+    <row r="155" spans="3:6" ht="15.6">
       <c r="C155" s="18" t="s">
         <v>339</v>
       </c>
@@ -16318,7 +16330,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="156" spans="3:6" ht="15.95">
+    <row r="156" spans="3:6" ht="15.6">
       <c r="C156" s="18" t="s">
         <v>341</v>
       </c>
@@ -16332,7 +16344,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="157" spans="3:6" ht="15.95">
+    <row r="157" spans="3:6" ht="15.6">
       <c r="C157" s="18" t="s">
         <v>343</v>
       </c>
@@ -16346,7 +16358,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="158" spans="3:6" ht="15.95">
+    <row r="158" spans="3:6" ht="15.6">
       <c r="C158" s="18" t="s">
         <v>345</v>
       </c>
@@ -16360,7 +16372,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="159" spans="3:6" ht="15.95">
+    <row r="159" spans="3:6" ht="15.6">
       <c r="C159" s="18" t="s">
         <v>347</v>
       </c>
@@ -16374,7 +16386,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="160" spans="3:6" ht="15.95">
+    <row r="160" spans="3:6" ht="15.6">
       <c r="C160" s="18" t="s">
         <v>349</v>
       </c>
@@ -16388,7 +16400,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="161" spans="2:6" ht="15.95">
+    <row r="161" spans="2:6" ht="15.6">
       <c r="C161" s="18" t="s">
         <v>351</v>
       </c>
@@ -16402,7 +16414,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="162" spans="2:6" ht="15.95">
+    <row r="162" spans="2:6" ht="15.6">
       <c r="C162" s="18" t="s">
         <v>353</v>
       </c>
@@ -16416,7 +16428,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="163" spans="2:6" ht="15.95">
+    <row r="163" spans="2:6" ht="15.6">
       <c r="C163" s="18" t="s">
         <v>355</v>
       </c>
@@ -16430,7 +16442,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="164" spans="2:6" ht="15.95">
+    <row r="164" spans="2:6" ht="15.6">
       <c r="C164" s="18" t="s">
         <v>357</v>
       </c>
@@ -16444,7 +16456,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="165" spans="2:6" ht="15.95">
+    <row r="165" spans="2:6" ht="15.6">
       <c r="C165" s="18" t="s">
         <v>359</v>
       </c>
@@ -16458,7 +16470,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="166" spans="2:6" ht="15.95">
+    <row r="166" spans="2:6" ht="15.6">
       <c r="C166" s="18" t="s">
         <v>361</v>
       </c>
@@ -16472,7 +16484,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="167" spans="2:6" ht="15.95">
+    <row r="167" spans="2:6" ht="15.6">
       <c r="C167" s="18" t="s">
         <v>363</v>
       </c>
@@ -16486,7 +16498,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="168" spans="2:6" ht="15.95">
+    <row r="168" spans="2:6" ht="15.6">
       <c r="C168" s="18" t="s">
         <v>365</v>
       </c>
@@ -16500,7 +16512,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="169" spans="2:6" ht="15.95">
+    <row r="169" spans="2:6" ht="15.6">
       <c r="C169" s="18" t="s">
         <v>367</v>
       </c>
@@ -16514,7 +16526,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="170" spans="2:6" ht="15.95">
+    <row r="170" spans="2:6" ht="15.6">
       <c r="B170" s="19"/>
       <c r="C170" s="18" t="s">
         <v>369</v>
@@ -16529,7 +16541,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="171" spans="2:6" ht="15.95">
+    <row r="171" spans="2:6" ht="15.6">
       <c r="C171" s="18" t="s">
         <v>371</v>
       </c>
@@ -16543,7 +16555,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="172" spans="2:6" ht="15.95">
+    <row r="172" spans="2:6" ht="15.6">
       <c r="C172" s="18" t="s">
         <v>373</v>
       </c>
@@ -16557,7 +16569,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="173" spans="2:6" ht="15.95">
+    <row r="173" spans="2:6" ht="15.6">
       <c r="C173" s="18" t="s">
         <v>375</v>
       </c>
@@ -16571,7 +16583,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="174" spans="2:6" ht="15.95">
+    <row r="174" spans="2:6" ht="15.6">
       <c r="C174" s="18" t="s">
         <v>377</v>
       </c>
@@ -16585,7 +16597,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="175" spans="2:6" ht="15.95">
+    <row r="175" spans="2:6" ht="15.6">
       <c r="C175" s="18" t="s">
         <v>379</v>
       </c>
@@ -16599,7 +16611,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="176" spans="2:6" ht="15.95">
+    <row r="176" spans="2:6" ht="15.6">
       <c r="C176" s="18" t="s">
         <v>381</v>
       </c>
@@ -16613,7 +16625,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="177" spans="2:6" ht="15.95">
+    <row r="177" spans="2:6" ht="15.6">
       <c r="C177" s="18" t="s">
         <v>383</v>
       </c>
@@ -16627,7 +16639,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="178" spans="2:6" ht="15.95">
+    <row r="178" spans="2:6" ht="15.6">
       <c r="C178" s="18" t="s">
         <v>385</v>
       </c>
@@ -16641,7 +16653,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="179" spans="2:6" ht="15.95">
+    <row r="179" spans="2:6" ht="15.6">
       <c r="C179" s="18" t="s">
         <v>387</v>
       </c>
@@ -16655,7 +16667,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="180" spans="2:6" ht="15.95">
+    <row r="180" spans="2:6" ht="15.6">
       <c r="C180" s="18" t="s">
         <v>389</v>
       </c>
@@ -16669,7 +16681,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="181" spans="2:6" ht="15.95">
+    <row r="181" spans="2:6" ht="15.6">
       <c r="C181" s="18" t="s">
         <v>391</v>
       </c>
@@ -16683,7 +16695,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="182" spans="2:6" ht="15.95">
+    <row r="182" spans="2:6" ht="15.6">
       <c r="C182" s="18" t="s">
         <v>393</v>
       </c>
@@ -16697,7 +16709,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="183" spans="2:6" ht="15.95">
+    <row r="183" spans="2:6" ht="15.6">
       <c r="C183" s="18" t="s">
         <v>395</v>
       </c>
@@ -16711,7 +16723,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="184" spans="2:6" ht="15.95">
+    <row r="184" spans="2:6" ht="15.6">
       <c r="C184" s="18" t="s">
         <v>397</v>
       </c>
@@ -16725,7 +16737,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="185" spans="2:6" ht="15.95">
+    <row r="185" spans="2:6" ht="15.6">
       <c r="C185" s="18" t="s">
         <v>399</v>
       </c>
@@ -16739,7 +16751,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="186" spans="2:6" ht="15.95">
+    <row r="186" spans="2:6" ht="15.6">
       <c r="C186" s="18" t="s">
         <v>401</v>
       </c>
@@ -16753,7 +16765,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="187" spans="2:6" ht="15.95">
+    <row r="187" spans="2:6" ht="15.6">
       <c r="C187" s="18" t="s">
         <v>403</v>
       </c>
@@ -16782,7 +16794,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="189" spans="2:6" ht="15.95">
+    <row r="189" spans="2:6" ht="15.6">
       <c r="C189" s="18" t="s">
         <v>407</v>
       </c>
@@ -16796,7 +16808,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="190" spans="2:6" ht="15.95">
+    <row r="190" spans="2:6" ht="15.6">
       <c r="C190" s="18" t="s">
         <v>409</v>
       </c>
@@ -16810,7 +16822,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="191" spans="2:6" ht="15.95">
+    <row r="191" spans="2:6" ht="15.6">
       <c r="C191" s="18" t="s">
         <v>411</v>
       </c>
@@ -16824,7 +16836,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="192" spans="2:6" ht="15.95">
+    <row r="192" spans="2:6" ht="15.6">
       <c r="C192" s="18" t="s">
         <v>413</v>
       </c>
@@ -16838,7 +16850,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="193" spans="3:6" ht="15.95">
+    <row r="193" spans="3:6" ht="15.6">
       <c r="C193" s="18" t="s">
         <v>415</v>
       </c>
@@ -16852,7 +16864,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="194" spans="3:6" ht="15.95">
+    <row r="194" spans="3:6" ht="15.6">
       <c r="C194" s="18" t="s">
         <v>417</v>
       </c>
@@ -16866,7 +16878,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="195" spans="3:6" ht="15.95">
+    <row r="195" spans="3:6" ht="15.6">
       <c r="C195" s="18" t="s">
         <v>419</v>
       </c>
@@ -16880,7 +16892,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="196" spans="3:6" ht="15.95">
+    <row r="196" spans="3:6" ht="15.6">
       <c r="C196" s="18" t="s">
         <v>421</v>
       </c>
@@ -16894,7 +16906,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="197" spans="3:6" ht="15.95">
+    <row r="197" spans="3:6" ht="15.6">
       <c r="C197" s="18" t="s">
         <v>423</v>
       </c>
@@ -16908,7 +16920,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="198" spans="3:6" ht="15.95">
+    <row r="198" spans="3:6" ht="15.6">
       <c r="C198" s="18" t="s">
         <v>425</v>
       </c>
@@ -16922,7 +16934,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="199" spans="3:6" ht="15.95">
+    <row r="199" spans="3:6" ht="15.6">
       <c r="C199" s="18" t="s">
         <v>427</v>
       </c>
@@ -16936,7 +16948,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="200" spans="3:6" ht="15.95">
+    <row r="200" spans="3:6" ht="15.6">
       <c r="C200" s="18" t="s">
         <v>429</v>
       </c>
@@ -16984,6 +16996,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100C6C00DC80E9FED4596C9F6D7CDDD6042" ma:contentTypeVersion="8" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="5eeea28be7a11a4fc7601b4d531de3e8">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="48b2e3f7-b09f-47ae-8574-fd5d5ffa6be8" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="801409e539578746097a67e8a71a3340" ns2:_="">
     <xsd:import namespace="48b2e3f7-b09f-47ae-8574-fd5d5ffa6be8"/>
@@ -17155,23 +17176,44 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{44D4A413-FCE6-452E-998A-26A273C51DAD}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{44D4A413-FCE6-452E-998A-26A273C51DAD}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="48b2e3f7-b09f-47ae-8574-fd5d5ffa6be8"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6322EC08-7F15-4758-B157-ECD15CFD93D4}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6962EFDB-3713-4253-9AC6-1F6EE91D9C4E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6962EFDB-3713-4253-9AC6-1F6EE91D9C4E}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6322EC08-7F15-4758-B157-ECD15CFD93D4}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="48b2e3f7-b09f-47ae-8574-fd5d5ffa6be8"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>